--- a/AAII_Financials/Quarterly/YVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YVR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>YVR</t>
   </si>
@@ -732,17 +732,17 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
-        <v>200</v>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
@@ -774,13 +774,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E9" s="3">
         <v>500</v>
       </c>
       <c r="F9" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -814,17 +814,17 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>-300</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-400</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3">
         <v>-400</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -964,7 +964,7 @@
         <v>200</v>
       </c>
       <c r="G14" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1050,17 +1050,17 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1900</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
-        <v>3600</v>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1091,17 +1091,17 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-1900</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F18" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-3400</v>
+        <v>-1300</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
@@ -1149,17 +1149,17 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>300</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
-        <v>-100</v>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
@@ -1190,15 +1190,15 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="E21" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-1400</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
@@ -1272,17 +1272,17 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-1600</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
-        <v>-3500</v>
+      <c r="G23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
@@ -1395,17 +1395,17 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-1400</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
-        <v>-3500</v>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
@@ -1436,17 +1436,17 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-1400</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F27" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-3500</v>
+        <v>-1700</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
@@ -1641,17 +1641,17 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-300</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
-        <v>100</v>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
@@ -1682,17 +1682,17 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1400</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F33" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-3500</v>
+        <v>-1700</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
@@ -1701,7 +1701,7 @@
         <v>-200</v>
       </c>
       <c r="J33" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K33" s="3">
         <v>-1200</v>
@@ -1764,17 +1764,17 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1400</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F35" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-3500</v>
+        <v>-1700</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
@@ -1783,7 +1783,7 @@
         <v>-200</v>
       </c>
       <c r="J35" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K35" s="3">
         <v>-1200</v>
@@ -1886,13 +1886,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E41" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="F41" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -1974,7 +1974,7 @@
         <v>500</v>
       </c>
       <c r="F43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G43" s="3">
         <v>400</v>
@@ -2059,7 +2059,7 @@
         <v>400</v>
       </c>
       <c r="G45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H45" s="3">
         <v>500</v>
@@ -2091,16 +2091,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="E46" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="F46" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="G46" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H46" s="3">
         <v>900</v>
@@ -2214,16 +2214,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E49" s="3">
         <v>6500</v>
       </c>
-      <c r="E49" s="3">
-        <v>6800</v>
-      </c>
       <c r="F49" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="G49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -2419,16 +2419,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12000</v>
+        <v>11600</v>
       </c>
       <c r="E54" s="3">
-        <v>13900</v>
+        <v>13400</v>
       </c>
       <c r="F54" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="G54" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="H54" s="3">
         <v>900</v>
@@ -2494,13 +2494,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E57" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F57" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="G57" s="3">
         <v>1000</v>
@@ -2538,7 +2538,7 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F58" s="3">
         <v>700</v>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -2617,16 +2617,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E60" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="F60" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G60" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
@@ -2661,7 +2661,7 @@
         <v>2200</v>
       </c>
       <c r="E61" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2863,16 +2863,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E66" s="3">
         <v>7100</v>
       </c>
-      <c r="E66" s="3">
-        <v>7300</v>
-      </c>
       <c r="F66" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="G66" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
@@ -3085,25 +3085,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9500</v>
+        <v>-9200</v>
       </c>
       <c r="E72" s="3">
-        <v>-7500</v>
+        <v>-7300</v>
       </c>
       <c r="F72" s="3">
-        <v>-7600</v>
+        <v>-7300</v>
       </c>
       <c r="G72" s="3">
-        <v>-7000</v>
+        <v>-6700</v>
       </c>
       <c r="H72" s="3">
-        <v>-37600</v>
+        <v>-36300</v>
       </c>
       <c r="I72" s="3">
-        <v>-37400</v>
+        <v>-36100</v>
       </c>
       <c r="J72" s="3">
-        <v>-37200</v>
+        <v>-35900</v>
       </c>
       <c r="K72" s="3">
         <v>-35600</v>
@@ -3249,13 +3249,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E76" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="F76" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="G76" s="3">
         <v>-400</v>
@@ -3376,17 +3376,17 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-1400</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F81" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-3500</v>
+        <v>-1700</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
@@ -3395,7 +3395,7 @@
         <v>-200</v>
       </c>
       <c r="J81" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K81" s="3">
         <v>-1200</v>
@@ -3441,7 +3441,7 @@
         <v>400</v>
       </c>
       <c r="F83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -3680,14 +3680,14 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-1800</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="F89" s="3">
-        <v>300</v>
+        <v>-700</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>4</v>
@@ -3861,14 +3861,14 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-100</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3">
-        <v>-600</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J94" s="3">
         <v>-700</v>
@@ -4083,14 +4083,14 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-100</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
-        <v>2700</v>
-      </c>
-      <c r="F100" s="3">
-        <v>2900</v>
+        <v>2600</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
@@ -4166,13 +4166,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="E102" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F102" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>4</v>

--- a/AAII_Financials/Quarterly/YVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>YVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -674,184 +674,235 @@
     <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43799</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43708</v>
+      </c>
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
+      <c r="H8" s="3">
+        <v>200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="Q8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
-        <v>400</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="H9" s="3">
+        <v>500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>500</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="Q9" s="3">
         <v>1000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-100</v>
       </c>
       <c r="F10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G10" s="3">
         <v>-400</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-400</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +918,12 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +963,20 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,49 +1016,73 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>400</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>200</v>
+      </c>
+      <c r="K14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>1400</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -999,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1031,8 +1122,20 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1148,118 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1900</v>
       </c>
       <c r="F17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1800</v>
       </c>
       <c r="F18" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
+        <v>-1700</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-1900</v>
       </c>
       <c r="J18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="Q18" s="3">
         <v>800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,90 +1275,118 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>600</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>300</v>
+      </c>
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1000</v>
       </c>
       <c r="F21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>-1200</v>
       </c>
       <c r="J21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1252,72 +1411,96 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1300</v>
       </c>
       <c r="F23" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>4</v>
+        <v>-1900</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-600</v>
       </c>
       <c r="H23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1329,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1349,8 +1532,20 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1585,126 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1300</v>
       </c>
       <c r="F26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1300</v>
       </c>
       <c r="F27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1744,20 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1530,32 +1773,44 @@
       <c r="G29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="O29" s="3">
         <v>-1000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="R29" s="3">
         <v>-3700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="S29" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1850,20 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1903,126 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-600</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1300</v>
       </c>
       <c r="F33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="R33" s="3">
         <v>-3800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +2062,131 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1300</v>
       </c>
       <c r="F35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="R35" s="3">
         <v>-3800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43799</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43708</v>
+      </c>
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2202,12 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +2223,65 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3100</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="G41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I41" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="P41" s="3">
         <v>2700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="Q41" s="3">
         <v>3200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,66 +2321,90 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>700</v>
+      </c>
+      <c r="F43" s="3">
+        <v>600</v>
+      </c>
+      <c r="G43" s="3">
+        <v>600</v>
+      </c>
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="J43" s="3">
+        <v>500</v>
+      </c>
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>300</v>
+      </c>
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>300</v>
-      </c>
-      <c r="O43" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -2029,228 +2412,300 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="P44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="Q44" s="3">
         <v>300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="R44" s="3">
         <v>500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="S44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>700</v>
+      </c>
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I45" s="3">
         <v>1000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>500</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4900</v>
+        <v>900</v>
       </c>
       <c r="E46" s="3">
-        <v>6400</v>
+        <v>1400</v>
       </c>
       <c r="F46" s="3">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="G46" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H46" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>1300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>2400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="P46" s="3">
         <v>3000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="Q46" s="3">
         <v>3600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="S46" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G47" s="3">
         <v>400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="H47" s="3">
         <v>400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="I47" s="3">
+        <v>400</v>
+      </c>
+      <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="K47" s="3">
         <v>600</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>100</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3">
         <v>500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="Q48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="R48" s="3">
         <v>4800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="S48" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6300</v>
+        <v>8600</v>
       </c>
       <c r="E49" s="3">
-        <v>6500</v>
+        <v>8400</v>
       </c>
       <c r="F49" s="3">
-        <v>7000</v>
+        <v>5400</v>
       </c>
       <c r="G49" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K49" s="3">
         <v>1400</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3">
-        <v>200</v>
-      </c>
-      <c r="L49" s="3">
-        <v>200</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>200</v>
+      </c>
+      <c r="R49" s="3">
+        <v>200</v>
+      </c>
+      <c r="S49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2745,20 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2798,20 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2345,23 +2824,23 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2370,10 +2849,22 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2904,73 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11600</v>
+        <v>11200</v>
       </c>
       <c r="E54" s="3">
-        <v>13400</v>
+        <v>11400</v>
       </c>
       <c r="F54" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="G54" s="3">
+        <v>11900</v>
+      </c>
+      <c r="H54" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K54" s="3">
         <v>2900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>1300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>3100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3">
         <v>3800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="Q54" s="3">
         <v>4500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="R54" s="3">
         <v>6300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="S54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2986,12 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,116 +3007,144 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="E57" s="3">
-        <v>2800</v>
+        <v>3600</v>
       </c>
       <c r="F57" s="3">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="G57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="I58" s="3">
+        <v>800</v>
+      </c>
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
-        <v>700</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>1300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
@@ -2605,75 +3152,99 @@
       <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
+        <v>200</v>
+      </c>
+      <c r="P59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2693,34 +3264,46 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
       </c>
       <c r="F62" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2732,10 +3315,22 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3370,20 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3423,20 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3476,73 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6800</v>
+        <v>5700</v>
       </c>
       <c r="E66" s="3">
-        <v>7100</v>
+        <v>7600</v>
       </c>
       <c r="F66" s="3">
-        <v>5300</v>
+        <v>7700</v>
       </c>
       <c r="G66" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K66" s="3">
         <v>3300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3558,12 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3603,20 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3656,20 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3709,20 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3762,73 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9200</v>
+        <v>-13900</v>
       </c>
       <c r="E72" s="3">
-        <v>-7300</v>
+        <v>-13600</v>
       </c>
       <c r="F72" s="3">
-        <v>-7300</v>
+        <v>-12400</v>
       </c>
       <c r="G72" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-6700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>-36300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>-36100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>-35900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>-35600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>-35100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
         <v>-34500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="R72" s="3">
         <v>-34300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="S72" s="3">
         <v>-30500</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3868,20 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3921,20 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3974,73 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4800</v>
+        <v>5500</v>
       </c>
       <c r="E76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J76" s="3">
         <v>6300</v>
       </c>
-      <c r="F76" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>2600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>3100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="Q76" s="3">
         <v>3700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="R76" s="3">
         <v>5200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="S76" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +4080,131 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43799</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43708</v>
+      </c>
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1300</v>
       </c>
       <c r="F81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="R81" s="3">
         <v>-3800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +4220,65 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="S83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +4318,20 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +4371,20 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4424,20 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4477,20 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4530,73 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>-800</v>
       </c>
       <c r="E89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>300</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="S89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +4612,65 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4710,20 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4763,73 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+        <v>-3300</v>
+      </c>
+      <c r="F94" s="3">
+        <v>100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>3900</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4845,12 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4890,20 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4943,20 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4996,20 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,34 +5049,46 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>900</v>
       </c>
       <c r="E100" s="3">
-        <v>2600</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
+        <v>700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>400</v>
+      </c>
+      <c r="G100" s="3">
+        <v>300</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -4117,88 +5100,124 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1800</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>1800</v>
+        <v>-3500</v>
       </c>
       <c r="F102" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>200</v>
       </c>
       <c r="H102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I102" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>-1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>-1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="Q102" s="3">
         <v>2900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>YVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>200</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
+      <c r="K8" s="3">
+        <v>100</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
@@ -777,55 +781,58 @@
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>900</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
-        <v>200</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
-        <v>500</v>
-      </c>
       <c r="H9" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I9" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="J9" s="3">
         <v>500</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+        <v>500</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -836,46 +843,49 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1000</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F10" s="3">
         <v>-100</v>
       </c>
       <c r="G10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H10" s="3">
         <v>-400</v>
       </c>
-      <c r="H10" s="3">
-        <v>-300</v>
-      </c>
       <c r="I10" s="3">
-        <v>-400</v>
+        <v>-900</v>
       </c>
       <c r="J10" s="3">
         <v>-400</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>-400</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -889,20 +899,23 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1040,26 +1060,26 @@
         <v>200</v>
       </c>
       <c r="F14" s="3">
+        <v>200</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>1400</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1093,7 +1116,7 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,37 +1178,38 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>900</v>
+        <v>1700</v>
       </c>
       <c r="E17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
-        <v>1700</v>
-      </c>
       <c r="G17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
-        <v>1900</v>
-      </c>
       <c r="I17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
+      <c r="L17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
@@ -1194,72 +1221,78 @@
         <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>800</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-700</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
-        <v>-1700</v>
-      </c>
       <c r="G18" s="3">
-        <v>-900</v>
+        <v>-1800</v>
       </c>
       <c r="H18" s="3">
-        <v>-1700</v>
+        <v>-1000</v>
       </c>
       <c r="I18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
-        <v>-200</v>
+      <c r="N18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,43 +1312,44 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>500</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>300</v>
       </c>
       <c r="J20" s="3">
+        <v>300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1324,69 +1358,75 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1423,8 +1463,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-1500</v>
       </c>
       <c r="E23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
-        <v>-600</v>
-      </c>
       <c r="H23" s="3">
-        <v>-1700</v>
+        <v>-700</v>
       </c>
       <c r="I23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
+      <c r="L23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1515,7 +1561,7 @@
         <v>-100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-1500</v>
       </c>
       <c r="E26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
-        <v>-600</v>
-      </c>
       <c r="H26" s="3">
-        <v>-1700</v>
+        <v>-700</v>
       </c>
       <c r="I26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
+      <c r="L26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-1500</v>
       </c>
       <c r="E27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
-        <v>-600</v>
-      </c>
       <c r="H27" s="3">
-        <v>-1700</v>
+        <v>-700</v>
       </c>
       <c r="I27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
+      <c r="L27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,16 +1814,19 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>4</v>
@@ -1773,11 +1834,11 @@
       <c r="G29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>4</v>
@@ -1785,32 +1846,35 @@
       <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-1000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-1100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-3700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,43 +1982,46 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-500</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-300</v>
       </c>
       <c r="J32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -1960,69 +2030,75 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>900</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-2300</v>
       </c>
       <c r="E33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
-        <v>-600</v>
-      </c>
       <c r="H33" s="3">
-        <v>-1700</v>
+        <v>-700</v>
       </c>
       <c r="I33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
+      <c r="L33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-2300</v>
       </c>
       <c r="E35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
-        <v>-600</v>
-      </c>
       <c r="H35" s="3">
-        <v>-1700</v>
+        <v>-700</v>
       </c>
       <c r="I35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
+      <c r="L35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>3500</v>
       </c>
       <c r="H41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I41" s="3">
         <v>3300</v>
       </c>
-      <c r="I41" s="3">
-        <v>5200</v>
-      </c>
       <c r="J41" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K41" s="3">
         <v>3300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,25 +2423,28 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
-      </c>
-      <c r="F43" s="3">
-        <v>600</v>
       </c>
       <c r="G43" s="3">
         <v>600</v>
       </c>
       <c r="H43" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I43" s="3">
         <v>500</v>
@@ -2360,34 +2453,37 @@
         <v>500</v>
       </c>
       <c r="K43" s="3">
+        <v>500</v>
+      </c>
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2412,64 +2508,67 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
       <c r="O44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
         <v>200</v>
       </c>
       <c r="Q44" s="3">
+        <v>200</v>
+      </c>
+      <c r="R44" s="3">
         <v>300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="E45" s="3">
         <v>600</v>
       </c>
       <c r="F45" s="3">
+        <v>600</v>
+      </c>
+      <c r="G45" s="3">
         <v>700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1300</v>
       </c>
       <c r="H45" s="3">
         <v>1300</v>
       </c>
       <c r="I45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>500</v>
       </c>
       <c r="M45" s="3">
         <v>500</v>
@@ -2478,7 +2577,7 @@
         <v>500</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2487,80 +2586,86 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
-        <v>4800</v>
-      </c>
       <c r="G46" s="3">
-        <v>5400</v>
+        <v>4900</v>
       </c>
       <c r="H46" s="3">
-        <v>5100</v>
+        <v>5500</v>
       </c>
       <c r="I46" s="3">
-        <v>6700</v>
+        <v>5200</v>
       </c>
       <c r="J46" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K46" s="3">
         <v>4200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>900</v>
       </c>
       <c r="L46" s="3">
         <v>900</v>
       </c>
       <c r="M46" s="3">
+        <v>900</v>
+      </c>
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="E47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F47" s="3">
         <v>1500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1400</v>
-      </c>
-      <c r="G47" s="3">
-        <v>400</v>
       </c>
       <c r="H47" s="3">
         <v>400</v>
@@ -2569,14 +2674,14 @@
         <v>400</v>
       </c>
       <c r="J47" s="3">
+        <v>400</v>
+      </c>
+      <c r="K47" s="3">
         <v>300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>600</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2592,14 +2697,17 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2615,8 +2723,8 @@
       <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="H48" s="3">
+        <v>100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -2627,8 +2735,8 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2637,60 +2745,63 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>500</v>
       </c>
       <c r="Q48" s="3">
+        <v>500</v>
+      </c>
+      <c r="R48" s="3">
         <v>600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8600</v>
+        <v>5200</v>
       </c>
       <c r="E49" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="F49" s="3">
-        <v>5400</v>
+        <v>8500</v>
       </c>
       <c r="G49" s="3">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="H49" s="3">
-        <v>6600</v>
+        <v>6100</v>
       </c>
       <c r="I49" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J49" s="3">
         <v>6900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
       <c r="O49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P49" s="3">
         <v>200</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,40 +2927,43 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2861,10 +2981,13 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11200</v>
+        <v>10100</v>
       </c>
       <c r="E54" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="F54" s="3">
-        <v>11700</v>
+        <v>11500</v>
       </c>
       <c r="G54" s="3">
+        <v>11800</v>
+      </c>
+      <c r="H54" s="3">
+        <v>12100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K54" s="3">
         <v>11900</v>
       </c>
-      <c r="H54" s="3">
-        <v>12200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>14000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>11900</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,66 +3141,70 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
-        <v>3600</v>
-      </c>
       <c r="F57" s="3">
-        <v>3300</v>
+        <v>3700</v>
       </c>
       <c r="G57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>3000</v>
       </c>
       <c r="J57" s="3">
         <v>3000</v>
       </c>
       <c r="K57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L57" s="3">
         <v>1000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="E58" s="3">
         <v>1100</v>
@@ -3079,23 +3213,23 @@
         <v>1100</v>
       </c>
       <c r="G58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3111,14 +3245,17 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3128,8 +3265,8 @@
       <c r="E59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -3144,10 +3281,10 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>1300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -3164,43 +3301,46 @@
       <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
+      <c r="R59" s="3">
+        <v>200</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3800</v>
       </c>
-      <c r="E60" s="3">
-        <v>4700</v>
-      </c>
       <c r="F60" s="3">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="G60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J60" s="3">
         <v>3800</v>
       </c>
-      <c r="H60" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
@@ -3209,46 +3349,49 @@
         <v>300</v>
       </c>
       <c r="O60" s="3">
+        <v>300</v>
+      </c>
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1100</v>
       </c>
       <c r="F61" s="3">
         <v>1100</v>
       </c>
       <c r="G61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H61" s="3">
         <v>2100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1900</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3285,29 +3431,29 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>400</v>
       </c>
       <c r="I62" s="3">
         <v>400</v>
       </c>
       <c r="J62" s="3">
+        <v>400</v>
+      </c>
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
@@ -3327,10 +3473,13 @@
         <v>0</v>
       </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,37 +3643,40 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
         <v>5700</v>
-      </c>
-      <c r="E66" s="3">
-        <v>7600</v>
       </c>
       <c r="F66" s="3">
         <v>7700</v>
       </c>
       <c r="G66" s="3">
-        <v>7400</v>
+        <v>7800</v>
       </c>
       <c r="H66" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I66" s="3">
         <v>7200</v>
       </c>
-      <c r="I66" s="3">
-        <v>7400</v>
-      </c>
       <c r="J66" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K66" s="3">
         <v>5600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>300</v>
       </c>
       <c r="M66" s="3">
         <v>300</v>
@@ -3527,22 +3685,25 @@
         <v>300</v>
       </c>
       <c r="O66" s="3">
+        <v>300</v>
+      </c>
+      <c r="P66" s="3">
         <v>500</v>
-      </c>
-      <c r="P66" s="3">
-        <v>700</v>
       </c>
       <c r="Q66" s="3">
         <v>700</v>
       </c>
       <c r="R66" s="3">
+        <v>700</v>
+      </c>
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-13900</v>
+        <v>-15600</v>
       </c>
       <c r="E72" s="3">
-        <v>-13600</v>
+        <v>-14100</v>
       </c>
       <c r="F72" s="3">
-        <v>-12400</v>
+        <v>-13700</v>
       </c>
       <c r="G72" s="3">
-        <v>-10200</v>
+        <v>-12500</v>
       </c>
       <c r="H72" s="3">
-        <v>-9600</v>
+        <v>-10400</v>
       </c>
       <c r="I72" s="3">
-        <v>-7600</v>
+        <v>-9700</v>
       </c>
       <c r="J72" s="3">
         <v>-7700</v>
       </c>
       <c r="K72" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="L72" s="3">
         <v>-6700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-36300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-36100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-35900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-35600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-35100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-34500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-34300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-30500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="E76" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G76" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K76" s="3">
+        <v>6300</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M76" s="3">
+        <v>600</v>
+      </c>
+      <c r="N76" s="3">
+        <v>800</v>
+      </c>
+      <c r="O76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R76" s="3">
         <v>3700</v>
       </c>
-      <c r="F76" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G76" s="3">
-        <v>4600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>6600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>6300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L76" s="3">
-        <v>600</v>
-      </c>
-      <c r="M76" s="3">
-        <v>800</v>
-      </c>
-      <c r="N76" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O76" s="3">
-        <v>2600</v>
-      </c>
-      <c r="P76" s="3">
-        <v>3100</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>3700</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-2300</v>
       </c>
       <c r="E81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
-        <v>-600</v>
-      </c>
       <c r="H81" s="3">
-        <v>-1700</v>
+        <v>-700</v>
       </c>
       <c r="I81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
+      <c r="L81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4233,28 +4432,28 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
       </c>
       <c r="I83" s="3">
+        <v>900</v>
+      </c>
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4269,16 +4468,19 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
       </c>
       <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
+      <c r="L89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4642,14 +4863,14 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -4660,17 +4881,20 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="F94" s="3">
-        <v>100</v>
+        <v>-3400</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>3900</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>900</v>
+        <v>3700</v>
       </c>
       <c r="E100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
-        <v>400</v>
-      </c>
       <c r="G100" s="3">
+        <v>500</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5132,13 +5381,13 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
@@ -5152,8 +5401,8 @@
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="E102" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3500</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>-1900</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2800</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-1200</v>
       </c>
       <c r="O102" s="3">
         <v>-1200</v>
       </c>
       <c r="P102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YVR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,11 +761,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -770,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
+      <c r="L8" s="3">
+        <v>100</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
@@ -784,26 +787,29 @@
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>900</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -811,31 +817,31 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
-        <v>400</v>
-      </c>
       <c r="I9" s="3">
+        <v>500</v>
+      </c>
+      <c r="J9" s="3">
         <v>900</v>
-      </c>
-      <c r="J9" s="3">
-        <v>500</v>
       </c>
       <c r="K9" s="3">
         <v>500</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+        <v>500</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -846,20 +852,23 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1000</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,28 +876,28 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F10" s="3">
         <v>-300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-100</v>
       </c>
       <c r="G10" s="3">
         <v>-100</v>
       </c>
       <c r="H10" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="I10" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J10" s="3">
         <v>-900</v>
-      </c>
-      <c r="J10" s="3">
-        <v>-400</v>
       </c>
       <c r="K10" s="3">
         <v>-400</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="L10" s="3">
+        <v>-400</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -902,20 +911,23 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,13 +948,14 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>300</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,32 +1076,32 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>200</v>
       </c>
       <c r="G14" s="3">
+        <v>200</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1098,14 +1117,17 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
         <v>1400</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,40 +1204,41 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="E17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F17" s="3">
         <v>2700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
+      <c r="M17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
@@ -1224,19 +1250,22 @@
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>800</v>
-      </c>
-      <c r="R17" s="3">
-        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
       <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1273,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2700</v>
       </c>
-      <c r="F18" s="3">
-        <v>-1800</v>
-      </c>
       <c r="G18" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="H18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
-        <v>-200</v>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,37 +1355,37 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>300</v>
       </c>
       <c r="I20" s="3">
         <v>300</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1361,16 +1394,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,55 +1414,58 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
-        <v>-2400</v>
-      </c>
       <c r="J21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1466,8 +1505,8 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
@@ -1481,64 +1520,70 @@
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
+      <c r="M23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
       <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1558,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>-100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
-        <v>-3200</v>
-      </c>
       <c r="J26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
+      <c r="M26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
       <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
-        <v>-3200</v>
-      </c>
       <c r="J27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
+      <c r="M27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
       <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,19 +1874,22 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-900</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>4</v>
@@ -1840,8 +1900,8 @@
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
@@ -1849,32 +1909,35 @@
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-1100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-3700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,37 +2063,37 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-300</v>
       </c>
       <c r="I32" s="3">
         <v>-300</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2033,72 +2102,78 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>900</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2300</v>
+        <v>-1000</v>
       </c>
       <c r="E33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
-        <v>-3200</v>
-      </c>
       <c r="J33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
+      <c r="M33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2300</v>
+        <v>-1000</v>
       </c>
       <c r="E35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
-        <v>-3200</v>
-      </c>
       <c r="J35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
+      <c r="M35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K41" s="3">
+        <v>5300</v>
+      </c>
+      <c r="L41" s="3">
         <v>3300</v>
       </c>
-      <c r="J41" s="3">
-        <v>5300</v>
-      </c>
-      <c r="K41" s="3">
-        <v>3300</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,19 +2527,19 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>700</v>
-      </c>
       <c r="G43" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="H43" s="3">
         <v>600</v>
       </c>
       <c r="I43" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J43" s="3">
         <v>500</v>
@@ -2456,34 +2548,37 @@
         <v>500</v>
       </c>
       <c r="L43" s="3">
+        <v>500</v>
+      </c>
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2511,67 +2606,70 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
         <v>200</v>
       </c>
       <c r="R44" s="3">
+        <v>200</v>
+      </c>
+      <c r="S44" s="3">
         <v>300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>600</v>
       </c>
       <c r="F45" s="3">
         <v>600</v>
       </c>
       <c r="G45" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H45" s="3">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="I45" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>500</v>
       </c>
       <c r="N45" s="3">
         <v>500</v>
@@ -2580,7 +2678,7 @@
         <v>500</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2589,86 +2687,92 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="E46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
-        <v>4900</v>
-      </c>
       <c r="H46" s="3">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="I46" s="3">
-        <v>5200</v>
+        <v>5600</v>
       </c>
       <c r="J46" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K46" s="3">
         <v>6800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>900</v>
       </c>
       <c r="M46" s="3">
         <v>900</v>
       </c>
       <c r="N46" s="3">
+        <v>900</v>
+      </c>
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1800</v>
+        <v>3100</v>
       </c>
       <c r="E47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F47" s="3">
         <v>1700</v>
       </c>
-      <c r="F47" s="3">
-        <v>1500</v>
-      </c>
       <c r="G47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H47" s="3">
         <v>1400</v>
-      </c>
-      <c r="H47" s="3">
-        <v>400</v>
       </c>
       <c r="I47" s="3">
         <v>400</v>
@@ -2677,14 +2781,14 @@
         <v>400</v>
       </c>
       <c r="K47" s="3">
+        <v>400</v>
+      </c>
+      <c r="L47" s="3">
         <v>300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>600</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2700,14 +2804,17 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2726,8 +2833,8 @@
       <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -2738,8 +2845,8 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2748,63 +2855,66 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>500</v>
       </c>
       <c r="R48" s="3">
+        <v>500</v>
+      </c>
+      <c r="S48" s="3">
         <v>600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="E49" s="3">
-        <v>8700</v>
+        <v>5400</v>
       </c>
       <c r="F49" s="3">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="G49" s="3">
-        <v>5500</v>
+        <v>8800</v>
       </c>
       <c r="H49" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="I49" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="J49" s="3">
         <v>6900</v>
       </c>
       <c r="K49" s="3">
+        <v>6900</v>
+      </c>
+      <c r="L49" s="3">
         <v>7300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
       <c r="P49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="3">
         <v>200</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2956,17 +3075,17 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2984,10 +3103,13 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10100</v>
+        <v>9600</v>
       </c>
       <c r="E54" s="3">
-        <v>11300</v>
+        <v>10400</v>
       </c>
       <c r="F54" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="G54" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="H54" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="I54" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="J54" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K54" s="3">
         <v>14200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,72 +3271,76 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E57" s="3">
-        <v>2700</v>
+        <v>1200</v>
       </c>
       <c r="F57" s="3">
-        <v>3700</v>
+        <v>2800</v>
       </c>
       <c r="G57" s="3">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="H57" s="3">
-        <v>2900</v>
+        <v>3500</v>
       </c>
       <c r="I57" s="3">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="J57" s="3">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="K57" s="3">
         <v>3000</v>
       </c>
       <c r="L57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M57" s="3">
         <v>1000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1100</v>
       </c>
       <c r="F58" s="3">
         <v>1100</v>
@@ -3216,23 +3349,23 @@
         <v>1100</v>
       </c>
       <c r="H58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3248,14 +3381,17 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3268,8 +3404,8 @@
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3284,10 +3420,10 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>1300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
@@ -3304,46 +3440,49 @@
       <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
+      <c r="S59" s="3">
+        <v>200</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="E60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K60" s="3">
         <v>3800</v>
       </c>
-      <c r="F60" s="3">
-        <v>4800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3800</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3000</v>
-      </c>
-      <c r="M60" s="3">
-        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>300</v>
@@ -3352,22 +3491,25 @@
         <v>300</v>
       </c>
       <c r="P60" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3375,26 +3517,26 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H61" s="3">
         <v>1100</v>
       </c>
-      <c r="G61" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>2100</v>
-      </c>
       <c r="I61" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J61" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K61" s="3">
         <v>1900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3434,29 +3579,29 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>500</v>
+      </c>
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>400</v>
       </c>
       <c r="J62" s="3">
         <v>400</v>
       </c>
       <c r="K62" s="3">
+        <v>400</v>
+      </c>
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
@@ -3476,10 +3621,13 @@
         <v>0</v>
       </c>
       <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,40 +3800,43 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="E66" s="3">
-        <v>5700</v>
+        <v>2700</v>
       </c>
       <c r="F66" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G66" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I66" s="3">
         <v>7700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>7800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>7500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>7200</v>
       </c>
       <c r="J66" s="3">
         <v>7500</v>
       </c>
       <c r="K66" s="3">
+        <v>7500</v>
+      </c>
+      <c r="L66" s="3">
         <v>5600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>300</v>
       </c>
       <c r="N66" s="3">
         <v>300</v>
@@ -3688,22 +3845,25 @@
         <v>300</v>
       </c>
       <c r="P66" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>500</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>700</v>
       </c>
       <c r="R66" s="3">
         <v>700</v>
       </c>
       <c r="S66" s="3">
+        <v>700</v>
+      </c>
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-15600</v>
+        <v>-16700</v>
       </c>
       <c r="E72" s="3">
-        <v>-14100</v>
+        <v>-16000</v>
       </c>
       <c r="F72" s="3">
-        <v>-13700</v>
+        <v>-14500</v>
       </c>
       <c r="G72" s="3">
-        <v>-12500</v>
+        <v>-14200</v>
       </c>
       <c r="H72" s="3">
-        <v>-10400</v>
+        <v>-12900</v>
       </c>
       <c r="I72" s="3">
-        <v>-9700</v>
+        <v>-10700</v>
       </c>
       <c r="J72" s="3">
-        <v>-7700</v>
+        <v>-10000</v>
       </c>
       <c r="K72" s="3">
         <v>-7700</v>
       </c>
       <c r="L72" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="M72" s="3">
         <v>-6700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-36300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-36100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-35900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-35600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-35100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-34500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-34300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-30500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="E76" s="3">
-        <v>5600</v>
+        <v>7700</v>
       </c>
       <c r="F76" s="3">
-        <v>3800</v>
+        <v>5700</v>
       </c>
       <c r="G76" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="H76" s="3">
-        <v>4600</v>
+        <v>4200</v>
       </c>
       <c r="I76" s="3">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="J76" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K76" s="3">
         <v>6700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2300</v>
+        <v>-1000</v>
       </c>
       <c r="E81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
-        <v>-3200</v>
-      </c>
       <c r="J81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
+      <c r="M81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,31 +4630,31 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
       </c>
       <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>900</v>
+      </c>
+      <c r="K83" s="3">
         <v>400</v>
       </c>
-      <c r="I83" s="3">
-        <v>900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>400</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4471,16 +4669,19 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
       </c>
       <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2100</v>
+        <v>-900</v>
       </c>
       <c r="E89" s="3">
-        <v>-1700</v>
+        <v>-2200</v>
       </c>
       <c r="F89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
-        <v>-500</v>
-      </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="I89" s="3">
-        <v>-2600</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
+      <c r="M89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4866,14 +5086,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -4884,17 +5104,20 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>-3400</v>
-      </c>
       <c r="F94" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-3500</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>3900</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,40 +5549,43 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3700</v>
+        <v>-700</v>
       </c>
       <c r="E100" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F100" s="3">
         <v>1700</v>
       </c>
-      <c r="F100" s="3">
-        <v>700</v>
-      </c>
       <c r="G100" s="3">
+        <v>800</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>2700</v>
       </c>
       <c r="J100" s="3">
         <v>2800</v>
       </c>
       <c r="K100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L100" s="3">
         <v>3000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -5361,10 +5606,13 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5389,8 +5637,8 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
@@ -5404,8 +5652,8 @@
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1400</v>
+        <v>-1000</v>
       </c>
       <c r="E102" s="3">
-        <v>-3400</v>
+        <v>1500</v>
       </c>
       <c r="F102" s="3">
         <v>-3500</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-3600</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2800</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-1200</v>
       </c>
       <c r="P102" s="3">
         <v>-1200</v>
       </c>
       <c r="Q102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>YVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -764,11 +768,11 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -776,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
+      <c r="M8" s="3">
+        <v>100</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
@@ -790,26 +794,29 @@
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>900</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -820,31 +827,31 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
+        <v>200</v>
+      </c>
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>900</v>
-      </c>
-      <c r="K9" s="3">
-        <v>500</v>
       </c>
       <c r="L9" s="3">
         <v>500</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+        <v>500</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -855,20 +862,23 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1000</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -879,28 +889,28 @@
         <v>-100</v>
       </c>
       <c r="F10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G10" s="3">
         <v>-300</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-100</v>
       </c>
       <c r="H10" s="3">
         <v>-100</v>
       </c>
       <c r="I10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J10" s="3">
         <v>-500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-900</v>
-      </c>
-      <c r="K10" s="3">
-        <v>-400</v>
       </c>
       <c r="L10" s="3">
         <v>-400</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>-400</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
@@ -914,20 +924,23 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,16 +962,17 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>300</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>400</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,32 +1099,32 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>200</v>
       </c>
       <c r="H14" s="3">
+        <v>200</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1120,14 +1140,17 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>1400</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1138,13 +1161,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,43 +1231,44 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="E17" s="3">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="F17" s="3">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="G17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
+      <c r="N17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
@@ -1253,19 +1280,22 @@
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>800</v>
-      </c>
-      <c r="S17" s="3">
-        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
       <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,58 +1303,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-1800</v>
+        <v>-2400</v>
       </c>
       <c r="F18" s="3">
-        <v>-2700</v>
+        <v>-2100</v>
       </c>
       <c r="G18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
-        <v>-200</v>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q18" s="3">
         <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,40 +1389,40 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="F20" s="3">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="G20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1397,16 +1431,19 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-900</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,58 +1451,61 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
-        <v>-1900</v>
-      </c>
       <c r="I21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
       <c r="U21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1508,8 +1548,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
@@ -1523,72 +1563,78 @@
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1000</v>
+        <v>-1600</v>
       </c>
       <c r="E23" s="3">
-        <v>-1500</v>
+        <v>-1100</v>
       </c>
       <c r="F23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-200</v>
+      <c r="N23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
       <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1606,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>-100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1000</v>
+        <v>-1600</v>
       </c>
       <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-200</v>
+      <c r="N26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O26" s="3">
         <v>-200</v>
       </c>
       <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1000</v>
+        <v>-1600</v>
       </c>
       <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-200</v>
+      <c r="N27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O27" s="3">
         <v>-200</v>
       </c>
       <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1886,16 +1947,16 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-900</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1903,8 +1964,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
@@ -1912,32 +1973,35 @@
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-1000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-1100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-3700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,40 +2133,40 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-200</v>
+        <v>-1400</v>
       </c>
       <c r="F32" s="3">
-        <v>-1100</v>
+        <v>-400</v>
       </c>
       <c r="G32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2105,75 +2175,81 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>900</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1000</v>
+        <v>-1600</v>
       </c>
       <c r="E33" s="3">
-        <v>-2400</v>
+        <v>-1100</v>
       </c>
       <c r="F33" s="3">
-        <v>-1600</v>
+        <v>-2600</v>
       </c>
       <c r="G33" s="3">
-        <v>-1300</v>
+        <v>-1700</v>
       </c>
       <c r="H33" s="3">
-        <v>-2000</v>
+        <v>-1400</v>
       </c>
       <c r="I33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-200</v>
+      <c r="N33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
       </c>
       <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1000</v>
+        <v>-1600</v>
       </c>
       <c r="E35" s="3">
-        <v>-2400</v>
+        <v>-1100</v>
       </c>
       <c r="F35" s="3">
-        <v>-1600</v>
+        <v>-2600</v>
       </c>
       <c r="G35" s="3">
-        <v>-1300</v>
+        <v>-1700</v>
       </c>
       <c r="H35" s="3">
-        <v>-2000</v>
+        <v>-1400</v>
       </c>
       <c r="I35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-200</v>
+      <c r="N35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
       </c>
       <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
-        <v>1600</v>
-      </c>
       <c r="F41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="J41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K41" s="3">
         <v>3400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2530,19 +2623,19 @@
         <v>200</v>
       </c>
       <c r="F43" s="3">
+        <v>200</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
+        <v>700</v>
+      </c>
+      <c r="J43" s="3">
         <v>600</v>
-      </c>
-      <c r="I43" s="3">
-        <v>600</v>
-      </c>
-      <c r="J43" s="3">
-        <v>500</v>
       </c>
       <c r="K43" s="3">
         <v>500</v>
@@ -2551,34 +2644,37 @@
         <v>500</v>
       </c>
       <c r="M43" s="3">
+        <v>500</v>
+      </c>
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2609,70 +2705,73 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
       <c r="Q44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R44" s="3">
         <v>200</v>
       </c>
       <c r="S44" s="3">
+        <v>200</v>
+      </c>
+      <c r="T44" s="3">
         <v>300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
-        <v>1300</v>
-      </c>
       <c r="F45" s="3">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="G45" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H45" s="3">
+        <v>700</v>
+      </c>
+      <c r="I45" s="3">
         <v>800</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1400</v>
       </c>
       <c r="J45" s="3">
         <v>1400</v>
       </c>
       <c r="K45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>500</v>
       </c>
       <c r="O45" s="3">
         <v>500</v>
@@ -2681,7 +2780,7 @@
         <v>500</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -2690,92 +2789,98 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
-        <v>3100</v>
-      </c>
       <c r="F46" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
-        <v>1400</v>
-      </c>
       <c r="H46" s="3">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="I46" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="J46" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K46" s="3">
         <v>5300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>900</v>
       </c>
       <c r="N46" s="3">
         <v>900</v>
       </c>
       <c r="O46" s="3">
+        <v>900</v>
+      </c>
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3100</v>
+        <v>3700</v>
       </c>
       <c r="E47" s="3">
-        <v>1900</v>
+        <v>3300</v>
       </c>
       <c r="F47" s="3">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="G47" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H47" s="3">
         <v>1600</v>
       </c>
-      <c r="H47" s="3">
-        <v>1400</v>
-      </c>
       <c r="I47" s="3">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="J47" s="3">
         <v>400</v>
@@ -2784,14 +2889,14 @@
         <v>400</v>
       </c>
       <c r="L47" s="3">
+        <v>400</v>
+      </c>
+      <c r="M47" s="3">
         <v>300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>600</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2807,14 +2912,17 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2836,8 +2944,8 @@
       <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
@@ -2848,8 +2956,8 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2858,22 +2966,25 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>500</v>
       </c>
       <c r="S48" s="3">
+        <v>500</v>
+      </c>
+      <c r="T48" s="3">
         <v>600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2884,40 +2995,40 @@
         <v>5400</v>
       </c>
       <c r="F49" s="3">
-        <v>8900</v>
+        <v>5600</v>
       </c>
       <c r="G49" s="3">
-        <v>8800</v>
+        <v>9300</v>
       </c>
       <c r="H49" s="3">
-        <v>5700</v>
+        <v>9200</v>
       </c>
       <c r="I49" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="J49" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="K49" s="3">
         <v>6900</v>
       </c>
       <c r="L49" s="3">
+        <v>6900</v>
+      </c>
+      <c r="M49" s="3">
         <v>7300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
       <c r="Q49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R49" s="3">
         <v>200</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3078,17 +3198,17 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3106,10 +3226,13 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,8 +3290,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3176,58 +3302,61 @@
         <v>9600</v>
       </c>
       <c r="E54" s="3">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="F54" s="3">
-        <v>11600</v>
+        <v>10900</v>
       </c>
       <c r="G54" s="3">
+        <v>12200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>12400</v>
+      </c>
+      <c r="I54" s="3">
+        <v>12800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K54" s="3">
+        <v>12700</v>
+      </c>
+      <c r="L54" s="3">
+        <v>14200</v>
+      </c>
+      <c r="M54" s="3">
         <v>11900</v>
       </c>
-      <c r="H54" s="3">
-        <v>12200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>12400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>12700</v>
-      </c>
-      <c r="K54" s="3">
-        <v>14200</v>
-      </c>
-      <c r="L54" s="3">
-        <v>11900</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,103 +3402,107 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="3">
         <v>1200</v>
       </c>
       <c r="F57" s="3">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="G57" s="3">
-        <v>3800</v>
+        <v>2900</v>
       </c>
       <c r="H57" s="3">
-        <v>3500</v>
+        <v>3900</v>
       </c>
       <c r="I57" s="3">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="J57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>3000</v>
       </c>
       <c r="L57" s="3">
         <v>3000</v>
       </c>
       <c r="M57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N57" s="3">
         <v>1000</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3384,14 +3518,17 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3407,8 +3544,8 @@
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -3423,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>1300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -3443,14 +3580,17 @@
       <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
+      <c r="T59" s="3">
+        <v>200</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3458,34 +3598,34 @@
         <v>2000</v>
       </c>
       <c r="E60" s="3">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="F60" s="3">
-        <v>4000</v>
+        <v>2900</v>
       </c>
       <c r="G60" s="3">
-        <v>4900</v>
+        <v>4100</v>
       </c>
       <c r="H60" s="3">
-        <v>4600</v>
+        <v>5100</v>
       </c>
       <c r="I60" s="3">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="J60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K60" s="3">
         <v>3200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3000</v>
-      </c>
-      <c r="N60" s="3">
-        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>300</v>
@@ -3494,22 +3634,25 @@
         <v>300</v>
       </c>
       <c r="Q60" s="3">
+        <v>300</v>
+      </c>
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3520,26 +3663,26 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1200</v>
       </c>
-      <c r="H61" s="3">
-        <v>1100</v>
-      </c>
       <c r="I61" s="3">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="J61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K61" s="3">
         <v>2400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3567,44 +3710,47 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>400</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
       </c>
       <c r="L62" s="3">
+        <v>400</v>
+      </c>
+      <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
@@ -3624,10 +3770,13 @@
         <v>0</v>
       </c>
       <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,43 +3958,46 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="E66" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="F66" s="3">
-        <v>5900</v>
+        <v>3200</v>
       </c>
       <c r="G66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H66" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J66" s="3">
         <v>8000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>8000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>7700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>7500</v>
       </c>
       <c r="K66" s="3">
         <v>7500</v>
       </c>
       <c r="L66" s="3">
+        <v>7500</v>
+      </c>
+      <c r="M66" s="3">
         <v>5600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>300</v>
       </c>
       <c r="O66" s="3">
         <v>300</v>
@@ -3848,22 +4006,25 @@
         <v>300</v>
       </c>
       <c r="Q66" s="3">
+        <v>300</v>
+      </c>
+      <c r="R66" s="3">
         <v>500</v>
-      </c>
-      <c r="R66" s="3">
-        <v>700</v>
       </c>
       <c r="S66" s="3">
         <v>700</v>
       </c>
       <c r="T66" s="3">
+        <v>700</v>
+      </c>
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-16700</v>
+        <v>-18400</v>
       </c>
       <c r="E72" s="3">
-        <v>-16000</v>
+        <v>-17600</v>
       </c>
       <c r="F72" s="3">
-        <v>-14500</v>
+        <v>-16900</v>
       </c>
       <c r="G72" s="3">
-        <v>-14200</v>
+        <v>-15200</v>
       </c>
       <c r="H72" s="3">
-        <v>-12900</v>
+        <v>-14800</v>
       </c>
       <c r="I72" s="3">
-        <v>-10700</v>
+        <v>-13500</v>
       </c>
       <c r="J72" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-10000</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-7700</v>
       </c>
       <c r="L72" s="3">
         <v>-7700</v>
       </c>
       <c r="M72" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="N72" s="3">
         <v>-6700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-36300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-36100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-35900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-35600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-35100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-34500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-34300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-30500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="E76" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F76" s="3">
         <v>7700</v>
       </c>
-      <c r="F76" s="3">
-        <v>5700</v>
-      </c>
       <c r="G76" s="3">
-        <v>3900</v>
+        <v>6000</v>
       </c>
       <c r="H76" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="I76" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="J76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K76" s="3">
         <v>5200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1000</v>
+        <v>-1600</v>
       </c>
       <c r="E81" s="3">
-        <v>-2400</v>
+        <v>-1100</v>
       </c>
       <c r="F81" s="3">
-        <v>-1600</v>
+        <v>-2600</v>
       </c>
       <c r="G81" s="3">
-        <v>-1300</v>
+        <v>-1700</v>
       </c>
       <c r="H81" s="3">
-        <v>-2000</v>
+        <v>-1400</v>
       </c>
       <c r="I81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-200</v>
+      <c r="N81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
       </c>
       <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4633,31 +4832,31 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
         <v>300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
       </c>
       <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4672,16 +4871,19 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
       </c>
       <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
-        <v>-2200</v>
-      </c>
       <c r="F89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
+      <c r="N89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5089,14 +5310,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -5107,17 +5328,20 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>600</v>
       </c>
-      <c r="E94" s="3">
-        <v>-100</v>
-      </c>
       <c r="F94" s="3">
-        <v>-3500</v>
+        <v>-200</v>
       </c>
       <c r="G94" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-3600</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>3900</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,43 +5795,46 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-700</v>
       </c>
-      <c r="E100" s="3">
-        <v>3800</v>
-      </c>
       <c r="F100" s="3">
-        <v>1700</v>
+        <v>4100</v>
       </c>
       <c r="G100" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>2800</v>
       </c>
       <c r="K100" s="3">
         <v>2800</v>
       </c>
       <c r="L100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M100" s="3">
         <v>3000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5609,10 +5855,13 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5640,8 +5889,8 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>4</v>
@@ -5655,8 +5904,8 @@
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1000</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F102" s="3">
         <v>1500</v>
       </c>
-      <c r="F102" s="3">
-        <v>-3500</v>
-      </c>
       <c r="G102" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>-3800</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2800</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q102" s="3">
         <v>-1200</v>
       </c>
       <c r="R102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>YVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -771,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -783,13 +787,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
+      <c r="N8" s="3">
+        <v>100</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
@@ -797,26 +801,29 @@
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>900</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -827,34 +834,34 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
-        <v>300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>200</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>900</v>
-      </c>
-      <c r="L9" s="3">
-        <v>500</v>
       </c>
       <c r="M9" s="3">
         <v>500</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+        <v>500</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
@@ -865,20 +872,23 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1000</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,31 +899,31 @@
         <v>-100</v>
       </c>
       <c r="F10" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G10" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H10" s="3">
         <v>-100</v>
       </c>
       <c r="I10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-900</v>
-      </c>
-      <c r="L10" s="3">
-        <v>-400</v>
       </c>
       <c r="M10" s="3">
         <v>-400</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>-400</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -927,20 +937,23 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>-100</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -972,10 +986,10 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>400</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>300</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,13 +1104,16 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1102,32 +1122,32 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
+        <v>400</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>400</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>200</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1143,14 +1163,17 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
         <v>1400</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1164,14 +1187,14 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
-        <v>100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,46 +1258,47 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
-        <v>2400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2900</v>
-      </c>
       <c r="H17" s="3">
-        <v>2100</v>
+        <v>800</v>
       </c>
       <c r="I17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>3600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
+      <c r="O17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
@@ -1283,19 +1310,22 @@
         <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>800</v>
-      </c>
-      <c r="T17" s="3">
-        <v>100</v>
       </c>
       <c r="U17" s="3">
         <v>100</v>
       </c>
       <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1333,64 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-2400</v>
+        <v>-1900</v>
       </c>
       <c r="F18" s="3">
-        <v>-2100</v>
+        <v>-2300</v>
       </c>
       <c r="G18" s="3">
-        <v>-2900</v>
+        <v>-2000</v>
       </c>
       <c r="H18" s="3">
-        <v>-2000</v>
+        <v>-800</v>
       </c>
       <c r="I18" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="J18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
       </c>
       <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,43 +1423,43 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="F20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>1200</v>
-      </c>
       <c r="H20" s="3">
+        <v>500</v>
+      </c>
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1434,16 +1468,19 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-900</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,61 +1488,64 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
-        <v>-1600</v>
-      </c>
       <c r="G21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
         <v>0</v>
       </c>
       <c r="V21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1551,8 +1591,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
@@ -1566,8 +1606,11 @@
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1575,69 +1618,72 @@
         <v>-1600</v>
       </c>
       <c r="E23" s="3">
-        <v>-1100</v>
+        <v>-1500</v>
       </c>
       <c r="F23" s="3">
-        <v>-1700</v>
+        <v>-1000</v>
       </c>
       <c r="G23" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="H23" s="3">
-        <v>-1400</v>
+        <v>-300</v>
       </c>
       <c r="I23" s="3">
-        <v>-2000</v>
+        <v>-1300</v>
       </c>
       <c r="J23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-200</v>
+      <c r="O23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P23" s="3">
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
       <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1655,13 +1701,13 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>-100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1761,61 +1813,64 @@
         <v>-1600</v>
       </c>
       <c r="E26" s="3">
-        <v>-1100</v>
+        <v>-1500</v>
       </c>
       <c r="F26" s="3">
-        <v>-1700</v>
+        <v>-1000</v>
       </c>
       <c r="G26" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="H26" s="3">
-        <v>-1400</v>
+        <v>-300</v>
       </c>
       <c r="I26" s="3">
-        <v>-2000</v>
+        <v>-1300</v>
       </c>
       <c r="J26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-200</v>
+      <c r="O26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1823,61 +1878,64 @@
         <v>-1600</v>
       </c>
       <c r="E27" s="3">
-        <v>-1100</v>
+        <v>-1500</v>
       </c>
       <c r="F27" s="3">
-        <v>-1700</v>
+        <v>-1000</v>
       </c>
       <c r="G27" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="H27" s="3">
-        <v>-1400</v>
+        <v>-300</v>
       </c>
       <c r="I27" s="3">
-        <v>-2000</v>
+        <v>-1300</v>
       </c>
       <c r="J27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-200</v>
+      <c r="O27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P27" s="3">
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1950,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-900</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1967,8 +2028,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
@@ -1976,32 +2037,35 @@
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-1000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-1100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-3700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,43 +2203,43 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-1400</v>
+        <v>-400</v>
       </c>
       <c r="F32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2178,16 +2248,19 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>900</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2195,61 +2268,64 @@
         <v>-1600</v>
       </c>
       <c r="E33" s="3">
-        <v>-1100</v>
+        <v>-1500</v>
       </c>
       <c r="F33" s="3">
-        <v>-2600</v>
+        <v>-1000</v>
       </c>
       <c r="G33" s="3">
-        <v>-1700</v>
+        <v>-2500</v>
       </c>
       <c r="H33" s="3">
-        <v>-1400</v>
+        <v>-300</v>
       </c>
       <c r="I33" s="3">
-        <v>-2100</v>
+        <v>-1300</v>
       </c>
       <c r="J33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-200</v>
+      <c r="O33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P33" s="3">
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2319,128 +2398,134 @@
         <v>-1600</v>
       </c>
       <c r="E35" s="3">
-        <v>-1100</v>
+        <v>-1500</v>
       </c>
       <c r="F35" s="3">
-        <v>-2600</v>
+        <v>-1000</v>
       </c>
       <c r="G35" s="3">
-        <v>-1700</v>
+        <v>-2500</v>
       </c>
       <c r="H35" s="3">
-        <v>-1400</v>
+        <v>-300</v>
       </c>
       <c r="I35" s="3">
-        <v>-2100</v>
+        <v>-1300</v>
       </c>
       <c r="J35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-200</v>
+      <c r="O35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P35" s="3">
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>500</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M41" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J41" s="3">
-        <v>3800</v>
-      </c>
-      <c r="K41" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L41" s="3">
-        <v>5300</v>
-      </c>
-      <c r="M41" s="3">
-        <v>3300</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>400</v>
-      </c>
-      <c r="P41" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,13 +2701,16 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
@@ -2626,10 +2719,10 @@
         <v>200</v>
       </c>
       <c r="G43" s="3">
+        <v>200</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>800</v>
       </c>
       <c r="I43" s="3">
         <v>700</v>
@@ -2638,7 +2731,7 @@
         <v>600</v>
       </c>
       <c r="K43" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L43" s="3">
         <v>500</v>
@@ -2647,34 +2740,37 @@
         <v>500</v>
       </c>
       <c r="N43" s="3">
+        <v>500</v>
+      </c>
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2708,35 +2804,38 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
       <c r="R44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S44" s="3">
         <v>200</v>
       </c>
       <c r="T44" s="3">
+        <v>200</v>
+      </c>
+      <c r="U44" s="3">
         <v>300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2744,37 +2843,37 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
-        <v>1400</v>
-      </c>
       <c r="G45" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="H45" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I45" s="3">
+        <v>600</v>
+      </c>
+      <c r="J45" s="3">
         <v>800</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1400</v>
       </c>
       <c r="K45" s="3">
         <v>1400</v>
       </c>
       <c r="L45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
-      </c>
-      <c r="O45" s="3">
-        <v>500</v>
       </c>
       <c r="P45" s="3">
         <v>500</v>
@@ -2783,7 +2882,7 @@
         <v>500</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -2792,75 +2891,81 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>700</v>
+        <v>6900</v>
       </c>
       <c r="E46" s="3">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="F46" s="3">
-        <v>3200</v>
+        <v>1100</v>
       </c>
       <c r="G46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
-        <v>1500</v>
-      </c>
       <c r="I46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K46" s="3">
+        <v>5900</v>
+      </c>
+      <c r="L46" s="3">
         <v>5300</v>
       </c>
-      <c r="J46" s="3">
-        <v>5900</v>
-      </c>
-      <c r="K46" s="3">
-        <v>5300</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>900</v>
       </c>
       <c r="O46" s="3">
         <v>900</v>
       </c>
       <c r="P46" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2868,22 +2973,22 @@
         <v>3700</v>
       </c>
       <c r="E47" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="F47" s="3">
-        <v>2000</v>
+        <v>3100</v>
       </c>
       <c r="G47" s="3">
         <v>1800</v>
       </c>
       <c r="H47" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I47" s="3">
         <v>1500</v>
       </c>
       <c r="J47" s="3">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K47" s="3">
         <v>400</v>
@@ -2892,14 +2997,14 @@
         <v>400</v>
       </c>
       <c r="M47" s="3">
+        <v>400</v>
+      </c>
+      <c r="N47" s="3">
         <v>300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>600</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2915,14 +3020,17 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2947,8 +3055,8 @@
       <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>100</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -2959,8 +3067,8 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2969,69 +3077,72 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>500</v>
       </c>
       <c r="T48" s="3">
+        <v>500</v>
+      </c>
+      <c r="U48" s="3">
         <v>600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F49" s="3">
         <v>5100</v>
       </c>
-      <c r="E49" s="3">
-        <v>5400</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H49" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I49" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J49" s="3">
         <v>5600</v>
       </c>
-      <c r="G49" s="3">
-        <v>9300</v>
-      </c>
-      <c r="H49" s="3">
-        <v>9200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>5900</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6600</v>
-      </c>
-      <c r="K49" s="3">
-        <v>6900</v>
       </c>
       <c r="L49" s="3">
         <v>6900</v>
       </c>
       <c r="M49" s="3">
+        <v>6900</v>
+      </c>
+      <c r="N49" s="3">
         <v>7300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1400</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
       <c r="R49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S49" s="3">
         <v>200</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3201,17 +3321,17 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3229,10 +3349,13 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9600</v>
+        <v>14700</v>
       </c>
       <c r="E54" s="3">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="F54" s="3">
-        <v>10900</v>
+        <v>9400</v>
       </c>
       <c r="G54" s="3">
-        <v>12200</v>
+        <v>10200</v>
       </c>
       <c r="H54" s="3">
-        <v>12400</v>
+        <v>11400</v>
       </c>
       <c r="I54" s="3">
-        <v>12800</v>
+        <v>11700</v>
       </c>
       <c r="J54" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K54" s="3">
         <v>13000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,109 +3533,113 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
-        <v>2900</v>
-      </c>
       <c r="H57" s="3">
-        <v>3900</v>
+        <v>2800</v>
       </c>
       <c r="I57" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="J57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>3000</v>
       </c>
       <c r="M57" s="3">
         <v>3000</v>
       </c>
       <c r="N57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O57" s="3">
         <v>1000</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
-        <v>1000</v>
-      </c>
       <c r="F58" s="3">
-        <v>1600</v>
+        <v>900</v>
       </c>
       <c r="G58" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="H58" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I58" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J58" s="3">
         <v>1100</v>
       </c>
       <c r="K58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3521,22 +3655,25 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>200</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>4</v>
@@ -3547,8 +3684,8 @@
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -3563,10 +3700,10 @@
         <v>0</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>1300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
@@ -3583,52 +3720,55 @@
       <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
+      <c r="U59" s="3">
+        <v>200</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="E60" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="F60" s="3">
-        <v>2900</v>
+        <v>2100</v>
       </c>
       <c r="G60" s="3">
-        <v>4100</v>
+        <v>2800</v>
       </c>
       <c r="H60" s="3">
-        <v>5100</v>
+        <v>3900</v>
       </c>
       <c r="I60" s="3">
         <v>4800</v>
       </c>
       <c r="J60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3000</v>
-      </c>
-      <c r="O60" s="3">
-        <v>300</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
@@ -3637,22 +3777,25 @@
         <v>300</v>
       </c>
       <c r="R60" s="3">
+        <v>300</v>
+      </c>
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3666,26 +3809,26 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
-        <v>1200</v>
-      </c>
       <c r="I61" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K61" s="3">
         <v>2300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1900</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3713,13 +3856,16 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
@@ -3728,32 +3874,32 @@
         <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>400</v>
+      </c>
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>400</v>
       </c>
       <c r="L62" s="3">
         <v>400</v>
       </c>
       <c r="M62" s="3">
+        <v>400</v>
+      </c>
+      <c r="N62" s="3">
         <v>500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
@@ -3773,10 +3919,13 @@
         <v>0</v>
       </c>
       <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,46 +4116,49 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2300</v>
+        <v>1200</v>
       </c>
       <c r="E66" s="3">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="F66" s="3">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="G66" s="3">
-        <v>6200</v>
+        <v>3000</v>
       </c>
       <c r="H66" s="3">
-        <v>8300</v>
+        <v>5800</v>
       </c>
       <c r="I66" s="3">
-        <v>8400</v>
+        <v>7800</v>
       </c>
       <c r="J66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K66" s="3">
         <v>8000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>7500</v>
       </c>
       <c r="L66" s="3">
         <v>7500</v>
       </c>
       <c r="M66" s="3">
+        <v>7500</v>
+      </c>
+      <c r="N66" s="3">
         <v>5600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>300</v>
       </c>
       <c r="P66" s="3">
         <v>300</v>
@@ -4009,22 +4167,25 @@
         <v>300</v>
       </c>
       <c r="R66" s="3">
+        <v>300</v>
+      </c>
+      <c r="S66" s="3">
         <v>500</v>
-      </c>
-      <c r="S66" s="3">
-        <v>700</v>
       </c>
       <c r="T66" s="3">
         <v>700</v>
       </c>
       <c r="U66" s="3">
+        <v>700</v>
+      </c>
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-18400</v>
+        <v>-19100</v>
       </c>
       <c r="E72" s="3">
-        <v>-17600</v>
+        <v>-17300</v>
       </c>
       <c r="F72" s="3">
-        <v>-16900</v>
+        <v>-16500</v>
       </c>
       <c r="G72" s="3">
-        <v>-15200</v>
+        <v>-15900</v>
       </c>
       <c r="H72" s="3">
-        <v>-14800</v>
+        <v>-14300</v>
       </c>
       <c r="I72" s="3">
-        <v>-13500</v>
+        <v>-13900</v>
       </c>
       <c r="J72" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-11200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10000</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-7700</v>
       </c>
       <c r="M72" s="3">
         <v>-7700</v>
       </c>
       <c r="N72" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="O72" s="3">
         <v>-6700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-36300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-36100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-35900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-35600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-35100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-34500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-34300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-30500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7300</v>
+        <v>13500</v>
       </c>
       <c r="E76" s="3">
-        <v>7500</v>
+        <v>6800</v>
       </c>
       <c r="F76" s="3">
-        <v>7700</v>
+        <v>7000</v>
       </c>
       <c r="G76" s="3">
-        <v>6000</v>
+        <v>7200</v>
       </c>
       <c r="H76" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J76" s="3">
         <v>4100</v>
       </c>
-      <c r="I76" s="3">
-        <v>4400</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4743,61 +4938,64 @@
         <v>-1600</v>
       </c>
       <c r="E81" s="3">
-        <v>-1100</v>
+        <v>-1500</v>
       </c>
       <c r="F81" s="3">
-        <v>-2600</v>
+        <v>-1000</v>
       </c>
       <c r="G81" s="3">
-        <v>-1700</v>
+        <v>-2500</v>
       </c>
       <c r="H81" s="3">
-        <v>-1400</v>
+        <v>-300</v>
       </c>
       <c r="I81" s="3">
-        <v>-2100</v>
+        <v>-1300</v>
       </c>
       <c r="J81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-200</v>
+      <c r="O81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P81" s="3">
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4835,7 +5034,7 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -4844,22 +5043,22 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4874,16 +5073,19 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
       </c>
       <c r="V83" s="3">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
-        <v>-2400</v>
-      </c>
       <c r="G89" s="3">
-        <v>-1800</v>
+        <v>-2200</v>
       </c>
       <c r="H89" s="3">
         <v>-900</v>
       </c>
       <c r="I89" s="3">
-        <v>-600</v>
+        <v>-900</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
+      <c r="O89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5313,14 +5534,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -5331,17 +5552,20 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>500</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-700</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>3900</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,46 +6041,49 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-700</v>
       </c>
-      <c r="F100" s="3">
-        <v>4100</v>
-      </c>
       <c r="G100" s="3">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="H100" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="I100" s="3">
+        <v>700</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
-      </c>
-      <c r="K100" s="3">
-        <v>2800</v>
       </c>
       <c r="L100" s="3">
         <v>2800</v>
       </c>
       <c r="M100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N100" s="3">
         <v>3000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5858,10 +6104,13 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5892,8 +6141,8 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>4</v>
@@ -5907,8 +6156,8 @@
       <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
-        <v>-1100</v>
-      </c>
       <c r="F102" s="3">
-        <v>1500</v>
+        <v>-1000</v>
       </c>
       <c r="G102" s="3">
-        <v>-3700</v>
+        <v>1400</v>
       </c>
       <c r="H102" s="3">
-        <v>-3800</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-3500</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2800</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-1200</v>
       </c>
       <c r="R102" s="3">
         <v>-1200</v>
       </c>
       <c r="S102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>YVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42704</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -790,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
+      <c r="O8" s="3">
+        <v>100</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
@@ -804,26 +808,29 @@
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>900</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -843,28 +850,28 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>900</v>
-      </c>
-      <c r="M9" s="3">
-        <v>500</v>
       </c>
       <c r="N9" s="3">
         <v>500</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
+        <v>500</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
@@ -875,20 +882,23 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1000</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,25 +918,25 @@
         <v>-100</v>
       </c>
       <c r="I10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J10" s="3">
         <v>-200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-900</v>
-      </c>
-      <c r="M10" s="3">
-        <v>-400</v>
       </c>
       <c r="N10" s="3">
         <v>-400</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3">
+        <v>-400</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
@@ -940,20 +950,23 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>-100</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,11 +1003,11 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,17 +1124,20 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1128,29 +1148,29 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1166,14 +1186,17 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
         <v>1400</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1193,11 +1216,11 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,49 +1285,50 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="3">
         <v>1900</v>
       </c>
       <c r="F17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1900</v>
       </c>
       <c r="J17" s="3">
         <v>1900</v>
       </c>
       <c r="K17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
+      <c r="P17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
@@ -1313,19 +1340,22 @@
         <v>200</v>
       </c>
       <c r="T17" s="3">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
         <v>800</v>
-      </c>
-      <c r="U17" s="3">
-        <v>100</v>
       </c>
       <c r="V17" s="3">
         <v>100</v>
       </c>
       <c r="W17" s="3">
+        <v>100</v>
+      </c>
+      <c r="X17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1336,61 +1366,64 @@
         <v>-1900</v>
       </c>
       <c r="F18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1900</v>
       </c>
       <c r="J18" s="3">
         <v>-1900</v>
       </c>
       <c r="K18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
-        <v>-200</v>
+      <c r="R18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
       <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,46 +1457,46 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>500</v>
       </c>
       <c r="I20" s="3">
         <v>600</v>
       </c>
       <c r="J20" s="3">
+        <v>600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1471,16 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-900</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,64 +1525,67 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
         <v>0</v>
       </c>
       <c r="W21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1594,8 +1634,8 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-200</v>
+      <c r="P23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
       </c>
       <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
       </c>
       <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1685,8 +1731,8 @@
       <c r="E24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1704,13 +1750,13 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>-100</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-200</v>
+      <c r="P26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
       </c>
       <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
       </c>
       <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-200</v>
+      <c r="P27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q27" s="3">
         <v>-200</v>
       </c>
       <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
       <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2014,11 +2075,11 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-900</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
@@ -2031,8 +2092,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
@@ -2040,32 +2101,35 @@
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-1000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-1100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-3700</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,46 +2273,46 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-500</v>
       </c>
       <c r="I32" s="3">
         <v>-600</v>
       </c>
       <c r="J32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2251,81 +2321,87 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>900</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-200</v>
+      <c r="P33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q33" s="3">
         <v>-200</v>
       </c>
       <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-200</v>
+      <c r="P35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q35" s="3">
         <v>-200</v>
       </c>
       <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42704</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6400</v>
+        <v>5600</v>
       </c>
       <c r="E41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
+        <v>600</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N41" s="3">
+        <v>5300</v>
+      </c>
+      <c r="O41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>400</v>
+      </c>
+      <c r="R41" s="3">
+        <v>600</v>
+      </c>
+      <c r="S41" s="3">
+        <v>800</v>
+      </c>
+      <c r="T41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="V41" s="3">
+        <v>3200</v>
+      </c>
+      <c r="W41" s="3">
+        <v>300</v>
+      </c>
+      <c r="X41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K41" s="3">
-        <v>3800</v>
-      </c>
-      <c r="L41" s="3">
-        <v>3400</v>
-      </c>
-      <c r="M41" s="3">
-        <v>5300</v>
-      </c>
-      <c r="N41" s="3">
-        <v>3300</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>600</v>
-      </c>
-      <c r="R41" s="3">
-        <v>800</v>
-      </c>
-      <c r="S41" s="3">
-        <v>2000</v>
-      </c>
-      <c r="T41" s="3">
-        <v>2700</v>
-      </c>
-      <c r="U41" s="3">
-        <v>3200</v>
-      </c>
-      <c r="V41" s="3">
-        <v>300</v>
-      </c>
-      <c r="W41" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,16 +2794,19 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
-      </c>
-      <c r="E43" s="3">
-        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
@@ -2722,19 +2815,19 @@
         <v>200</v>
       </c>
       <c r="H43" s="3">
+        <v>200</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>600</v>
       </c>
       <c r="K43" s="3">
         <v>600</v>
       </c>
       <c r="L43" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M43" s="3">
         <v>500</v>
@@ -2743,34 +2836,37 @@
         <v>500</v>
       </c>
       <c r="O43" s="3">
+        <v>500</v>
+      </c>
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2807,35 +2903,38 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
       <c r="S44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T44" s="3">
         <v>200</v>
       </c>
       <c r="U44" s="3">
+        <v>200</v>
+      </c>
+      <c r="V44" s="3">
         <v>300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2846,37 +2945,37 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>600</v>
       </c>
       <c r="I45" s="3">
         <v>600</v>
       </c>
       <c r="J45" s="3">
+        <v>600</v>
+      </c>
+      <c r="K45" s="3">
         <v>800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1400</v>
       </c>
       <c r="L45" s="3">
         <v>1400</v>
       </c>
       <c r="M45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
-      </c>
-      <c r="P45" s="3">
-        <v>500</v>
       </c>
       <c r="Q45" s="3">
         <v>500</v>
@@ -2885,7 +2984,7 @@
         <v>500</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -2894,104 +2993,110 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="E46" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
-        <v>1100</v>
-      </c>
       <c r="G46" s="3">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="H46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>900</v>
       </c>
       <c r="P46" s="3">
         <v>900</v>
       </c>
       <c r="Q46" s="3">
+        <v>900</v>
+      </c>
+      <c r="R46" s="3">
         <v>1100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E47" s="3">
         <v>3700</v>
       </c>
-      <c r="E47" s="3">
-        <v>3400</v>
-      </c>
       <c r="F47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G47" s="3">
         <v>3100</v>
       </c>
-      <c r="G47" s="3">
-        <v>1800</v>
-      </c>
       <c r="H47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I47" s="3">
         <v>1700</v>
       </c>
-      <c r="I47" s="3">
-        <v>1500</v>
-      </c>
       <c r="J47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1400</v>
-      </c>
-      <c r="K47" s="3">
-        <v>400</v>
       </c>
       <c r="L47" s="3">
         <v>400</v>
@@ -3000,14 +3105,14 @@
         <v>400</v>
       </c>
       <c r="N47" s="3">
+        <v>400</v>
+      </c>
+      <c r="O47" s="3">
         <v>300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>600</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3023,14 +3128,17 @@
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3058,8 +3166,8 @@
       <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>100</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -3070,8 +3178,8 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -3080,72 +3188,75 @@
         <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="T48" s="3">
         <v>500</v>
       </c>
       <c r="U48" s="3">
+        <v>500</v>
+      </c>
+      <c r="V48" s="3">
         <v>600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E49" s="3">
         <v>4000</v>
       </c>
-      <c r="E49" s="3">
-        <v>4800</v>
-      </c>
       <c r="F49" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G49" s="3">
         <v>5100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>8800</v>
       </c>
-      <c r="I49" s="3">
-        <v>8600</v>
-      </c>
       <c r="J49" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K49" s="3">
         <v>5600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6600</v>
-      </c>
-      <c r="L49" s="3">
-        <v>6900</v>
       </c>
       <c r="M49" s="3">
         <v>6900</v>
       </c>
       <c r="N49" s="3">
+        <v>6900</v>
+      </c>
+      <c r="O49" s="3">
         <v>7300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1400</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
       <c r="S49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T49" s="3">
         <v>200</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3324,17 +3444,17 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3352,10 +3472,13 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14700</v>
+        <v>14900</v>
       </c>
       <c r="E54" s="3">
-        <v>9000</v>
+        <v>14800</v>
       </c>
       <c r="F54" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="G54" s="3">
+        <v>9500</v>
+      </c>
+      <c r="H54" s="3">
+        <v>10300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K54" s="3">
+        <v>12000</v>
+      </c>
+      <c r="L54" s="3">
+        <v>13000</v>
+      </c>
+      <c r="M54" s="3">
+        <v>12700</v>
+      </c>
+      <c r="N54" s="3">
+        <v>14200</v>
+      </c>
+      <c r="O54" s="3">
+        <v>11900</v>
+      </c>
+      <c r="P54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>900</v>
+      </c>
+      <c r="R54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="U54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="V54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="W54" s="3">
+        <v>6300</v>
+      </c>
+      <c r="X54" s="3">
         <v>10200</v>
       </c>
-      <c r="H54" s="3">
-        <v>11400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>11700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>12000</v>
-      </c>
-      <c r="K54" s="3">
-        <v>13000</v>
-      </c>
-      <c r="L54" s="3">
-        <v>12700</v>
-      </c>
-      <c r="M54" s="3">
-        <v>14200</v>
-      </c>
-      <c r="N54" s="3">
-        <v>11900</v>
-      </c>
-      <c r="O54" s="3">
-        <v>2900</v>
-      </c>
-      <c r="P54" s="3">
-        <v>900</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1300</v>
-      </c>
-      <c r="S54" s="3">
-        <v>3100</v>
-      </c>
-      <c r="T54" s="3">
-        <v>3800</v>
-      </c>
-      <c r="U54" s="3">
-        <v>4500</v>
-      </c>
-      <c r="V54" s="3">
-        <v>6300</v>
-      </c>
-      <c r="W54" s="3">
-        <v>10200</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>3000</v>
       </c>
       <c r="N57" s="3">
         <v>3000</v>
       </c>
       <c r="O57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P57" s="3">
         <v>1000</v>
-      </c>
-      <c r="P57" s="3">
-        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1100</v>
       </c>
       <c r="I58" s="3">
         <v>1100</v>
@@ -3629,20 +3763,20 @@
         <v>1100</v>
       </c>
       <c r="L58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3658,26 +3792,29 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3687,8 +3824,8 @@
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3703,10 +3840,10 @@
         <v>0</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>1300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
@@ -3723,55 +3860,58 @@
       <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
+      <c r="V59" s="3">
+        <v>200</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3900</v>
       </c>
-      <c r="I60" s="3">
-        <v>4800</v>
-      </c>
       <c r="J60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K60" s="3">
         <v>4500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3000</v>
-      </c>
-      <c r="P60" s="3">
-        <v>300</v>
       </c>
       <c r="Q60" s="3">
         <v>300</v>
@@ -3780,22 +3920,25 @@
         <v>300</v>
       </c>
       <c r="S60" s="3">
+        <v>300</v>
+      </c>
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3812,26 +3955,26 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1100</v>
       </c>
-      <c r="J61" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1900</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3868,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
@@ -3877,32 +4023,32 @@
         <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>400</v>
       </c>
       <c r="M62" s="3">
         <v>400</v>
       </c>
       <c r="N62" s="3">
+        <v>400</v>
+      </c>
+      <c r="O62" s="3">
         <v>500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
@@ -3922,10 +4068,13 @@
         <v>0</v>
       </c>
       <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,49 +4274,52 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
-        <v>5800</v>
-      </c>
       <c r="I66" s="3">
-        <v>7800</v>
+        <v>5900</v>
       </c>
       <c r="J66" s="3">
         <v>7900</v>
       </c>
       <c r="K66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="L66" s="3">
         <v>8000</v>
-      </c>
-      <c r="L66" s="3">
-        <v>7500</v>
       </c>
       <c r="M66" s="3">
         <v>7500</v>
       </c>
       <c r="N66" s="3">
+        <v>7500</v>
+      </c>
+      <c r="O66" s="3">
         <v>5600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>300</v>
       </c>
       <c r="Q66" s="3">
         <v>300</v>
@@ -4170,22 +4328,25 @@
         <v>300</v>
       </c>
       <c r="S66" s="3">
+        <v>300</v>
+      </c>
+      <c r="T66" s="3">
         <v>500</v>
-      </c>
-      <c r="T66" s="3">
-        <v>700</v>
       </c>
       <c r="U66" s="3">
         <v>700</v>
       </c>
       <c r="V66" s="3">
+        <v>700</v>
+      </c>
+      <c r="W66" s="3">
         <v>1100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-19100</v>
+        <v>-19800</v>
       </c>
       <c r="E72" s="3">
-        <v>-17300</v>
+        <v>-19200</v>
       </c>
       <c r="F72" s="3">
-        <v>-16500</v>
+        <v>-17400</v>
       </c>
       <c r="G72" s="3">
-        <v>-15900</v>
+        <v>-16700</v>
       </c>
       <c r="H72" s="3">
-        <v>-14300</v>
+        <v>-16000</v>
       </c>
       <c r="I72" s="3">
-        <v>-13900</v>
+        <v>-14400</v>
       </c>
       <c r="J72" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-12700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-7700</v>
       </c>
       <c r="N72" s="3">
         <v>-7700</v>
       </c>
       <c r="O72" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="P72" s="3">
         <v>-6700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-36300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-36100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-35900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-35600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-35100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-34500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-34300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-30500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13500</v>
+        <v>13700</v>
       </c>
       <c r="E76" s="3">
-        <v>6800</v>
+        <v>13600</v>
       </c>
       <c r="F76" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="G76" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="H76" s="3">
-        <v>5600</v>
+        <v>7300</v>
       </c>
       <c r="I76" s="3">
-        <v>3800</v>
+        <v>5700</v>
       </c>
       <c r="J76" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K76" s="3">
         <v>4100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42704</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-200</v>
+      <c r="P81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q81" s="3">
         <v>-200</v>
       </c>
       <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,13 +5217,14 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -5046,22 +5245,22 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -5076,16 +5275,19 @@
         <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
       </c>
       <c r="W83" s="3">
+        <v>100</v>
+      </c>
+      <c r="X83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-900</v>
       </c>
       <c r="I89" s="3">
         <v>-900</v>
       </c>
       <c r="J89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-2700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-200</v>
+      <c r="P89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5537,14 +5758,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
@@ -5555,17 +5776,20 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>600</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-3400</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-700</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>3900</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,49 +6287,52 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7600</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>2800</v>
       </c>
       <c r="M100" s="3">
         <v>2800</v>
       </c>
       <c r="N100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O100" s="3">
         <v>3000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -6107,10 +6353,13 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6144,8 +6393,8 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
@@ -6159,8 +6408,8 @@
       <c r="R101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6100</v>
+        <v>-900</v>
       </c>
       <c r="E102" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="G102" s="3">
-        <v>1400</v>
-      </c>
       <c r="H102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>-3500</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-3600</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2800</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-1200</v>
       </c>
       <c r="S102" s="3">
         <v>-1200</v>
       </c>
       <c r="T102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YVR_QTR_FIN.xlsx
@@ -3087,7 +3087,7 @@
         <v>3100</v>
       </c>
       <c r="H47" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I47" s="3">
         <v>1700</v>
@@ -3569,7 +3569,7 @@
         <v>11500</v>
       </c>
       <c r="J54" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="K54" s="3">
         <v>12000</v>

--- a/AAII_Financials/Quarterly/YVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>YVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,119 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43159</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43069</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42794</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42704</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>600</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -797,60 +804,66 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>900</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
@@ -859,25 +872,25 @@
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>500</v>
       </c>
       <c r="O9" s="3">
+        <v>900</v>
+      </c>
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
+      <c r="Q9" s="3">
+        <v>500</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
@@ -885,40 +898,46 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3">
         <v>300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1000</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>-100</v>
       </c>
       <c r="G10" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H10" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I10" s="3">
-        <v>-100</v>
+        <v>-700</v>
       </c>
       <c r="J10" s="3">
         <v>-200</v>
@@ -927,23 +946,23 @@
         <v>-100</v>
       </c>
       <c r="L10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N10" s="3">
         <v>-500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-400</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
@@ -953,20 +972,26 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
         <v>-100</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1000,20 +1027,20 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>200</v>
+      </c>
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1160,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>500</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I14" s="3">
+        <v>200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>200</v>
+      </c>
+      <c r="M14" s="3">
         <v>400</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>200</v>
-      </c>
-      <c r="K14" s="3">
-        <v>400</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>200</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1169,14 +1208,14 @@
         <v>200</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>200</v>
+      </c>
+      <c r="R14" s="3">
         <v>3000</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1189,14 +1228,20 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
         <v>1400</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1204,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1216,17 +1261,17 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,55 +1337,57 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K17" s="3">
+        <v>800</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="O17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
-        <v>800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>3600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
+      <c r="R17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
@@ -1343,87 +1396,99 @@
         <v>200</v>
       </c>
       <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-1800</v>
       </c>
       <c r="E18" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1513,158 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>800</v>
       </c>
       <c r="E20" s="3">
-        <v>300</v>
+        <v>-2000</v>
       </c>
       <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>1300</v>
-      </c>
       <c r="H20" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>500</v>
+      </c>
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>300</v>
       </c>
       <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-900</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-900</v>
       </c>
       <c r="E21" s="3">
-        <v>-1500</v>
+        <v>-12400</v>
       </c>
       <c r="F21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1637,11 +1716,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
@@ -1652,93 +1731,105 @@
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="E23" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="Q23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U23" s="3">
         <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-600</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
       </c>
       <c r="W23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1753,17 +1844,17 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1788,8 +1879,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="E26" s="3">
-        <v>-1600</v>
+        <v>-12800</v>
       </c>
       <c r="F26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="Q26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U26" s="3">
         <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-600</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
       </c>
       <c r="W26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="E27" s="3">
-        <v>-1600</v>
+        <v>-12800</v>
       </c>
       <c r="F27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="Q27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U27" s="3">
         <v>-300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-600</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
       <c r="W27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,13 +2175,19 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2078,58 +2199,64 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-900</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
-        <v>-900</v>
-      </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-1000</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-1100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>-3700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2397,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-800</v>
       </c>
       <c r="E32" s="3">
-        <v>-300</v>
+        <v>2000</v>
       </c>
       <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1300</v>
-      </c>
       <c r="H32" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>-300</v>
       </c>
       <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>900</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="E33" s="3">
-        <v>-1600</v>
+        <v>-12800</v>
       </c>
       <c r="F33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="Q33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-3800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="E35" s="3">
-        <v>-1600</v>
+        <v>-12800</v>
       </c>
       <c r="F35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="Q35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-3800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43159</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43069</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42794</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42704</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2832,84 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5600</v>
+        <v>3600</v>
       </c>
       <c r="E41" s="3">
-        <v>6500</v>
+        <v>4300</v>
       </c>
       <c r="F41" s="3">
+        <v>7100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>8300</v>
+      </c>
+      <c r="H41" s="3">
+        <v>400</v>
+      </c>
+      <c r="I41" s="3">
+        <v>500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P41" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>400</v>
+      </c>
+      <c r="T41" s="3">
+        <v>600</v>
+      </c>
+      <c r="U41" s="3">
+        <v>800</v>
+      </c>
+      <c r="V41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="X41" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Y41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
-        <v>600</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>3600</v>
-      </c>
-      <c r="L41" s="3">
-        <v>3800</v>
-      </c>
-      <c r="M41" s="3">
-        <v>3400</v>
-      </c>
-      <c r="N41" s="3">
-        <v>5300</v>
-      </c>
-      <c r="O41" s="3">
-        <v>3300</v>
-      </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>400</v>
-      </c>
-      <c r="R41" s="3">
-        <v>600</v>
-      </c>
-      <c r="S41" s="3">
-        <v>800</v>
-      </c>
-      <c r="T41" s="3">
-        <v>2000</v>
-      </c>
-      <c r="U41" s="3">
-        <v>2700</v>
-      </c>
-      <c r="V41" s="3">
-        <v>3200</v>
-      </c>
-      <c r="W41" s="3">
-        <v>300</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,61 +2976,67 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>800</v>
+        <v>2100</v>
       </c>
       <c r="E43" s="3">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="F43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G43" s="3">
+        <v>500</v>
+      </c>
+      <c r="H43" s="3">
+        <v>300</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>200</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
-      </c>
-      <c r="M43" s="3">
-        <v>500</v>
-      </c>
-      <c r="N43" s="3">
-        <v>500</v>
       </c>
       <c r="O43" s="3">
         <v>500</v>
       </c>
       <c r="P43" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>500</v>
+      </c>
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2860,13 +3045,19 @@
         <v>100</v>
       </c>
       <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
         <v>300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2906,40 +3097,46 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
         <v>200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2948,177 +3145,189 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
-      </c>
-      <c r="O45" s="3">
-        <v>500</v>
-      </c>
-      <c r="P45" s="3">
-        <v>400</v>
       </c>
       <c r="Q45" s="3">
         <v>500</v>
       </c>
       <c r="R45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S45" s="3">
         <v>500</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="E46" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="F46" s="3">
-        <v>600</v>
+        <v>8300</v>
       </c>
       <c r="G46" s="3">
+        <v>8900</v>
+      </c>
+      <c r="H46" s="3">
+        <v>800</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K46" s="3">
+        <v>900</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M46" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N46" s="3">
+        <v>5900</v>
+      </c>
+      <c r="O46" s="3">
+        <v>5300</v>
+      </c>
+      <c r="P46" s="3">
+        <v>6800</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>4200</v>
+      </c>
+      <c r="R46" s="3">
+        <v>900</v>
+      </c>
+      <c r="S46" s="3">
+        <v>900</v>
+      </c>
+      <c r="T46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="X46" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Y46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>900</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>5000</v>
-      </c>
-      <c r="L46" s="3">
-        <v>5900</v>
-      </c>
-      <c r="M46" s="3">
-        <v>5300</v>
-      </c>
-      <c r="N46" s="3">
-        <v>6800</v>
-      </c>
-      <c r="O46" s="3">
-        <v>4200</v>
-      </c>
-      <c r="P46" s="3">
-        <v>900</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>900</v>
-      </c>
-      <c r="R46" s="3">
-        <v>1100</v>
-      </c>
-      <c r="S46" s="3">
-        <v>1300</v>
-      </c>
-      <c r="T46" s="3">
-        <v>2400</v>
-      </c>
-      <c r="U46" s="3">
-        <v>3000</v>
-      </c>
-      <c r="V46" s="3">
-        <v>3600</v>
-      </c>
-      <c r="W46" s="3">
-        <v>1200</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4100</v>
+        <v>100</v>
       </c>
       <c r="E47" s="3">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>3500</v>
+        <v>5200</v>
       </c>
       <c r="G47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I47" s="3">
         <v>3100</v>
       </c>
-      <c r="H47" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K47" s="3">
         <v>1700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1400</v>
-      </c>
-      <c r="L47" s="3">
-        <v>400</v>
-      </c>
-      <c r="M47" s="3">
-        <v>400</v>
       </c>
       <c r="N47" s="3">
         <v>400</v>
       </c>
       <c r="O47" s="3">
+        <v>400</v>
+      </c>
+      <c r="P47" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q47" s="3">
         <v>300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>600</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3131,14 +3340,20 @@
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
-      </c>
-      <c r="X47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,7 +3361,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -3169,11 +3384,11 @@
       <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>100</v>
+      </c>
+      <c r="N48" s="3">
+        <v>100</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -3181,88 +3396,94 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
       <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
         <v>500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>4800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4200</v>
+        <v>5200</v>
       </c>
       <c r="E49" s="3">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="F49" s="3">
-        <v>4900</v>
+        <v>5400</v>
       </c>
       <c r="G49" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="H49" s="3">
-        <v>5300</v>
+        <v>6200</v>
       </c>
       <c r="I49" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K49" s="3">
         <v>8800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>8700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>6600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>6900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>6900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>7300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1400</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V49" s="3">
         <v>200</v>
@@ -3273,8 +3494,14 @@
       <c r="X49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,31 +3642,37 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3447,8 +3686,8 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3459,8 +3698,8 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3475,10 +3714,16 @@
         <v>0</v>
       </c>
       <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14900</v>
+        <v>11300</v>
       </c>
       <c r="E54" s="3">
-        <v>14800</v>
+        <v>11600</v>
       </c>
       <c r="F54" s="3">
-        <v>9100</v>
+        <v>18900</v>
       </c>
       <c r="G54" s="3">
-        <v>9500</v>
+        <v>18900</v>
       </c>
       <c r="H54" s="3">
-        <v>10300</v>
+        <v>11500</v>
       </c>
       <c r="I54" s="3">
+        <v>9300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K54" s="3">
         <v>11500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>11700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>12000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>13000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>14200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>11900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>6300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,99 +3924,107 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>900</v>
+        <v>1900</v>
       </c>
       <c r="E57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
-        <v>1300</v>
-      </c>
       <c r="G57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>300</v>
+      </c>
+      <c r="W57" s="3">
+        <v>400</v>
+      </c>
+      <c r="X57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3700</v>
-      </c>
-      <c r="K57" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>3000</v>
-      </c>
-      <c r="O57" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>100</v>
-      </c>
-      <c r="R57" s="3">
-        <v>100</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-      <c r="T57" s="3">
-        <v>300</v>
-      </c>
-      <c r="U57" s="3">
-        <v>400</v>
-      </c>
-      <c r="V57" s="3">
-        <v>500</v>
-      </c>
-      <c r="W57" s="3">
-        <v>1100</v>
-      </c>
-      <c r="X57" s="3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>500</v>
+      </c>
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1100</v>
-      </c>
       <c r="J58" s="3">
-        <v>1100</v>
+        <v>1900</v>
       </c>
       <c r="K58" s="3">
         <v>1100</v>
@@ -3766,10 +4033,10 @@
         <v>1100</v>
       </c>
       <c r="M58" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="N58" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="O58" s="3">
         <v>700</v>
@@ -3777,11 +4044,11 @@
       <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="Q58" s="3">
+        <v>700</v>
+      </c>
+      <c r="R58" s="3">
+        <v>800</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -3795,43 +4062,49 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
-        <v>100</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3843,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
@@ -3863,90 +4136,102 @@
       <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>200</v>
+      </c>
+      <c r="X59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1100</v>
+        <v>2800</v>
       </c>
       <c r="E60" s="3">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="F60" s="3">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="G60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K60" s="3">
         <v>3900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>300</v>
       </c>
       <c r="S60" s="3">
         <v>300</v>
       </c>
       <c r="T60" s="3">
+        <v>300</v>
+      </c>
+      <c r="U60" s="3">
+        <v>300</v>
+      </c>
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3958,29 +4243,29 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1900</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4005,56 +4290,62 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>400</v>
+      </c>
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
-        <v>300</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>200</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
@@ -4071,10 +4362,16 @@
         <v>0</v>
       </c>
       <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1100</v>
+        <v>4700</v>
       </c>
       <c r="E66" s="3">
-        <v>1200</v>
+        <v>4500</v>
       </c>
       <c r="F66" s="3">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="G66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K66" s="3">
         <v>5900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>300</v>
       </c>
       <c r="S66" s="3">
         <v>300</v>
       </c>
       <c r="T66" s="3">
+        <v>300</v>
+      </c>
+      <c r="U66" s="3">
+        <v>300</v>
+      </c>
+      <c r="V66" s="3">
         <v>500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-19800</v>
+        <v>-28800</v>
       </c>
       <c r="E72" s="3">
-        <v>-19200</v>
+        <v>-28100</v>
       </c>
       <c r="F72" s="3">
-        <v>-17400</v>
+        <v>-25200</v>
       </c>
       <c r="G72" s="3">
-        <v>-16700</v>
+        <v>-24500</v>
       </c>
       <c r="H72" s="3">
-        <v>-16000</v>
+        <v>-22200</v>
       </c>
       <c r="I72" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-14400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-14000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-12700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-11200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-10000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-7700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-7700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-36300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-36100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-35900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-35600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-35100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-34500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-34300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-30500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13700</v>
+        <v>6500</v>
       </c>
       <c r="E76" s="3">
-        <v>13600</v>
+        <v>7000</v>
       </c>
       <c r="F76" s="3">
+        <v>17500</v>
+      </c>
+      <c r="G76" s="3">
+        <v>17300</v>
+      </c>
+      <c r="H76" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I76" s="3">
         <v>6900</v>
       </c>
-      <c r="G76" s="3">
-        <v>7100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>7300</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K76" s="3">
         <v>5700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>5000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>5200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>6300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>3100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>5200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43159</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43069</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42794</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42704</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="E81" s="3">
-        <v>-1600</v>
+        <v>-12800</v>
       </c>
       <c r="F81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="Q81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-3800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,19 +5613,21 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -5239,7 +5636,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -5248,25 +5645,25 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>500</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -5278,16 +5675,22 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
         <v>100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6053,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="E89" s="3">
-        <v>-1400</v>
+        <v>-3600</v>
       </c>
       <c r="F89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-900</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-900</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-2700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-1200</v>
       </c>
       <c r="U89" s="3">
         <v>-500</v>
       </c>
       <c r="V89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="W89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X89" s="3">
         <v>-1000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,31 +6159,33 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5761,8 +6202,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5770,8 +6211,8 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
@@ -5779,17 +6220,23 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6377,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>600</v>
-      </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-2900</v>
       </c>
       <c r="J94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-3400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-700</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>3900</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6775,14 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,46 +6790,46 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>7700</v>
+        <v>8900</v>
       </c>
       <c r="F100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>-700</v>
+        <v>9800</v>
       </c>
       <c r="H100" s="3">
-        <v>3800</v>
+        <v>300</v>
       </c>
       <c r="I100" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>3000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -6356,10 +6847,16 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6396,11 +6893,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>4</v>
@@ -6411,11 +6908,11 @@
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
@@ -6426,72 +6923,84 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="E102" s="3">
-        <v>6200</v>
+        <v>3800</v>
       </c>
       <c r="F102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>200</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H102" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>1900</v>
-      </c>
-      <c r="O102" s="3">
-        <v>2800</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="U102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="V102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="W102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
-        <v>200</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="U102" s="3">
-        <v>-500</v>
-      </c>
-      <c r="V102" s="3">
-        <v>2900</v>
-      </c>
-      <c r="W102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>YVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,134 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="F7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43616</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43524</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43434</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43343</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43251</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43159</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43069</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42978</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42886</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42794</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42704</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -810,66 +818,72 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
         <v>200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>900</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
-        <v>200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>200</v>
-      </c>
       <c r="I9" s="3">
+        <v>300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>700</v>
-      </c>
-      <c r="J9" s="3">
-        <v>200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
@@ -878,25 +892,25 @@
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>500</v>
       </c>
       <c r="Q9" s="3">
+        <v>900</v>
+      </c>
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
+      <c r="S9" s="3">
+        <v>500</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
@@ -904,46 +918,52 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3">
         <v>300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1000</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>-200</v>
-      </c>
       <c r="I10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K10" s="3">
         <v>-700</v>
-      </c>
-      <c r="J10" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>-100</v>
       </c>
       <c r="L10" s="3">
         <v>-200</v>
@@ -952,23 +972,23 @@
         <v>-100</v>
       </c>
       <c r="N10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P10" s="3">
         <v>-500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>-400</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
@@ -978,20 +998,26 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>-100</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,35 +1044,37 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
-      </c>
-      <c r="E12" s="3">
-        <v>300</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>300</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
-        <v>200</v>
-      </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1092,8 +1120,14 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1200,14 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1175,37 +1215,37 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>4700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>400</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>200</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1214,14 +1254,14 @@
         <v>200</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>200</v>
+      </c>
+      <c r="T14" s="3">
         <v>3000</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1234,50 +1274,56 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
         <v>1400</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
+        <v>200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
@@ -1314,8 +1360,14 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,61 +1391,63 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F17" s="3">
         <v>2400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>11600</v>
       </c>
-      <c r="F17" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2400</v>
-      </c>
       <c r="H17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K17" s="3">
+        <v>6700</v>
+      </c>
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
-        <v>6700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1400</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>200</v>
+      <c r="T17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
@@ -1402,93 +1456,105 @@
         <v>200</v>
       </c>
       <c r="W17" s="3">
+        <v>200</v>
+      </c>
+      <c r="X17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-10800</v>
       </c>
-      <c r="F18" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-2400</v>
-      </c>
       <c r="H18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="L18" s="3">
         <v>-2500</v>
       </c>
-      <c r="I18" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1400</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1581,170 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>800</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
+        <v>300</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>500</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>300</v>
       </c>
       <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>300</v>
+      </c>
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-900</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-12400</v>
       </c>
-      <c r="F21" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-600</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
       <c r="Z21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1722,11 +1802,11 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>4</v>
@@ -1737,82 +1817,94 @@
       <c r="Z22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-12800</v>
       </c>
-      <c r="F23" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="P23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
         <v>-300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-600</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
       <c r="Y23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1820,16 +1912,16 @@
         <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1850,17 +1942,17 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1885,8 +1977,14 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2057,174 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-12800</v>
       </c>
-      <c r="F26" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="P26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
         <v>-300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-600</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-12800</v>
       </c>
-      <c r="F27" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="P27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W27" s="3">
         <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-600</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,19 +2297,25 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2202,17 +2324,17 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-1100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -2222,41 +2344,47 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-900</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-1000</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AB29" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2457,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2537,174 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>-300</v>
       </c>
       <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>900</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-12800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="X33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2777,179 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-12800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="X35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="F38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43616</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43524</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43434</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43343</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43251</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43159</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43069</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42978</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42886</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42794</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42704</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2976,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +3006,90 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F41" s="3">
         <v>3600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>7100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>8300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>3600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>3200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,67 +3162,73 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G43" s="3">
         <v>2500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
-      </c>
-      <c r="O43" s="3">
-        <v>500</v>
-      </c>
-      <c r="P43" s="3">
-        <v>500</v>
       </c>
       <c r="Q43" s="3">
         <v>500</v>
       </c>
       <c r="R43" s="3">
+        <v>500</v>
+      </c>
+      <c r="S43" s="3">
+        <v>500</v>
+      </c>
+      <c r="T43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -3051,13 +3237,19 @@
         <v>100</v>
       </c>
       <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3">
         <v>300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3103,237 +3295,255 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
         <v>200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>500</v>
-      </c>
-      <c r="R45" s="3">
-        <v>400</v>
       </c>
       <c r="S45" s="3">
         <v>500</v>
       </c>
       <c r="T45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U45" s="3">
         <v>500</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F46" s="3">
         <v>5800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>6800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>8300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>8900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>5900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>6800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>3000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>3600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>200</v>
+      </c>
+      <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>5200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>4700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>4400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>3100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1400</v>
-      </c>
-      <c r="N47" s="3">
-        <v>400</v>
-      </c>
-      <c r="O47" s="3">
-        <v>400</v>
       </c>
       <c r="P47" s="3">
         <v>400</v>
       </c>
       <c r="Q47" s="3">
+        <v>400</v>
+      </c>
+      <c r="R47" s="3">
+        <v>400</v>
+      </c>
+      <c r="S47" s="3">
         <v>300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>600</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3346,28 +3556,34 @@
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -3390,11 +3606,11 @@
       <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>100</v>
+      </c>
+      <c r="P48" s="3">
+        <v>100</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
@@ -3402,94 +3618,100 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
       <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
         <v>500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>4800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F49" s="3">
         <v>5200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>4500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>5400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>5200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>6200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>5000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>6800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>8800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>8700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>5600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>6600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>6900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>6900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>7300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1400</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X49" s="3">
         <v>200</v>
@@ -3500,8 +3722,14 @@
       <c r="Z49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3802,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3882,14 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3659,11 +3899,11 @@
       <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -3674,11 +3914,11 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3692,8 +3932,8 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3704,8 +3944,8 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3720,10 +3960,16 @@
         <v>0</v>
       </c>
       <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +4042,94 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F54" s="3">
         <v>11300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>11600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>18900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>18900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>11500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>13100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>11500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>11700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>13000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>12700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>14200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>11900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>4500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>6300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4156,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,111 +4186,119 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1100</v>
       </c>
       <c r="J57" s="3">
         <v>1600</v>
       </c>
       <c r="K57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1100</v>
       </c>
       <c r="M58" s="3">
         <v>1100</v>
@@ -4039,10 +4307,10 @@
         <v>1100</v>
       </c>
       <c r="O58" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="P58" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q58" s="3">
         <v>700</v>
@@ -4050,11 +4318,11 @@
       <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
+      <c r="S58" s="3">
+        <v>700</v>
+      </c>
+      <c r="T58" s="3">
+        <v>800</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
@@ -4068,49 +4336,55 @@
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -4122,13 +4396,13 @@
         <v>0</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>1300</v>
-      </c>
-      <c r="S59" s="3">
-        <v>200</v>
-      </c>
-      <c r="T59" s="3">
-        <v>200</v>
       </c>
       <c r="U59" s="3">
         <v>200</v>
@@ -4142,88 +4416,100 @@
       <c r="X59" s="3">
         <v>200</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3000</v>
-      </c>
-      <c r="S60" s="3">
-        <v>300</v>
-      </c>
-      <c r="T60" s="3">
-        <v>300</v>
       </c>
       <c r="U60" s="3">
         <v>300</v>
       </c>
       <c r="V60" s="3">
+        <v>300</v>
+      </c>
+      <c r="W60" s="3">
+        <v>300</v>
+      </c>
+      <c r="X60" s="3">
         <v>500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4231,13 +4517,13 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4249,29 +4535,29 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1900</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4296,62 +4582,68 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>200</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
       <c r="U62" s="3">
         <v>0</v>
       </c>
@@ -4368,10 +4660,16 @@
         <v>0</v>
       </c>
       <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4742,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4822,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4902,94 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F66" s="3">
         <v>4700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>300</v>
-      </c>
-      <c r="T66" s="3">
-        <v>300</v>
       </c>
       <c r="U66" s="3">
         <v>300</v>
       </c>
       <c r="V66" s="3">
+        <v>300</v>
+      </c>
+      <c r="W66" s="3">
+        <v>300</v>
+      </c>
+      <c r="X66" s="3">
         <v>500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +5016,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +5092,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5172,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5252,14 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5332,94 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-28800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-28100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-25200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-24500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-22200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-15900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-20400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-14400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-14000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-12700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-11200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-10000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-7700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-6700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-36300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-36100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-35900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-35600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-35100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-34500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-34300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-30500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5492,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5572,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5652,94 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F76" s="3">
         <v>6500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>7000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>17500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>17300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>8800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>6900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>9300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>5700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>6300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>3100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>3700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>5200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5812,179 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="F80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43616</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43524</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43434</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43343</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43251</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43159</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43069</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42978</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42886</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42794</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42704</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-12800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="X81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,34 +6011,36 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>300</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>600</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -5651,25 +6049,25 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>500</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -5681,16 +6079,22 @@
         <v>0</v>
       </c>
       <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
         <v>100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +6167,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6247,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6327,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6407,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6487,94 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3600</v>
       </c>
-      <c r="F89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H89" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-5000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-2700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>300</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-1200</v>
       </c>
       <c r="W89" s="3">
         <v>-500</v>
       </c>
       <c r="X89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6601,10 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6181,8 +6623,8 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -6190,8 +6632,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -6208,8 +6650,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6217,8 +6659,8 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
@@ -6226,17 +6668,23 @@
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6757,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6837,94 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-600</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-700</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>3900</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6951,10 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +7027,14 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +7107,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +7187,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,61 +7267,67 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>8900</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>9800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>6200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>4900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>2800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>3000</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -6853,10 +7345,16 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6899,11 +7397,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>4</v>
@@ -6914,11 +7412,11 @@
       <c r="U101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-      <c r="W101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X101" s="3">
         <v>0</v>
@@ -6929,78 +7427,90 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>3800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
-        <v>7900</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-300</v>
-      </c>
       <c r="I102" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3600</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>1900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>2800</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>2900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>YVR</t>
   </si>
@@ -6608,26 +6608,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
